--- a/Zmays_B73/05_excel/dn12a.xlsx
+++ b/Zmays_B73/05_excel/dn12a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/E0164BA1-C0F6-4E12-8FDF-5794A234FFD1/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/08_sra_list_x/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/BE0E3244-AEE9-4ACD-97B2-8D815B509D0A/192.168.10.18/disk6/pzhou/projects/barn/Zmays_B73/05_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD317EE-90FA-0E43-9538-A1E7D46EE110}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2411BDC5-B4C0-1E46-91C1-DCCB4C5056ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="17280" windowHeight="11560" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="11080" yWindow="9080" windowWidth="17280" windowHeight="11560" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="684">
   <si>
     <t>SampleID</t>
   </si>
@@ -1207,16 +1207,892 @@
   </si>
   <si>
     <t>CML312SR</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>s01</t>
+  </si>
+  <si>
+    <t>s02</t>
+  </si>
+  <si>
+    <t>s03</t>
+  </si>
+  <si>
+    <t>s04</t>
+  </si>
+  <si>
+    <t>s05</t>
+  </si>
+  <si>
+    <t>s06</t>
+  </si>
+  <si>
+    <t>s07</t>
+  </si>
+  <si>
+    <t>s08</t>
+  </si>
+  <si>
+    <t>s09</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>s15</t>
+  </si>
+  <si>
+    <t>s16</t>
+  </si>
+  <si>
+    <t>s17</t>
+  </si>
+  <si>
+    <t>s18</t>
+  </si>
+  <si>
+    <t>s19</t>
+  </si>
+  <si>
+    <t>s20</t>
+  </si>
+  <si>
+    <t>s21</t>
+  </si>
+  <si>
+    <t>s22</t>
+  </si>
+  <si>
+    <t>s23</t>
+  </si>
+  <si>
+    <t>s24</t>
+  </si>
+  <si>
+    <t>s25</t>
+  </si>
+  <si>
+    <t>s26</t>
+  </si>
+  <si>
+    <t>s27</t>
+  </si>
+  <si>
+    <t>s28</t>
+  </si>
+  <si>
+    <t>s29</t>
+  </si>
+  <si>
+    <t>s30</t>
+  </si>
+  <si>
+    <t>s31</t>
+  </si>
+  <si>
+    <t>s32</t>
+  </si>
+  <si>
+    <t>s33</t>
+  </si>
+  <si>
+    <t>s34</t>
+  </si>
+  <si>
+    <t>s35</t>
+  </si>
+  <si>
+    <t>s36</t>
+  </si>
+  <si>
+    <t>s37</t>
+  </si>
+  <si>
+    <t>s38</t>
+  </si>
+  <si>
+    <t>s39</t>
+  </si>
+  <si>
+    <t>s40</t>
+  </si>
+  <si>
+    <t>s41</t>
+  </si>
+  <si>
+    <t>s42</t>
+  </si>
+  <si>
+    <t>s43</t>
+  </si>
+  <si>
+    <t>s44</t>
+  </si>
+  <si>
+    <t>s45</t>
+  </si>
+  <si>
+    <t>s46</t>
+  </si>
+  <si>
+    <t>s47</t>
+  </si>
+  <si>
+    <t>s48</t>
+  </si>
+  <si>
+    <t>s49</t>
+  </si>
+  <si>
+    <t>s50</t>
+  </si>
+  <si>
+    <t>s51</t>
+  </si>
+  <si>
+    <t>s52</t>
+  </si>
+  <si>
+    <t>s53</t>
+  </si>
+  <si>
+    <t>s54</t>
+  </si>
+  <si>
+    <t>s55</t>
+  </si>
+  <si>
+    <t>s56</t>
+  </si>
+  <si>
+    <t>s57</t>
+  </si>
+  <si>
+    <t>s58</t>
+  </si>
+  <si>
+    <t>s59</t>
+  </si>
+  <si>
+    <t>s60</t>
+  </si>
+  <si>
+    <t>s61</t>
+  </si>
+  <si>
+    <t>s62</t>
+  </si>
+  <si>
+    <t>s63</t>
+  </si>
+  <si>
+    <t>s64</t>
+  </si>
+  <si>
+    <t>s65</t>
+  </si>
+  <si>
+    <t>s66</t>
+  </si>
+  <si>
+    <t>s67</t>
+  </si>
+  <si>
+    <t>s68</t>
+  </si>
+  <si>
+    <t>s69</t>
+  </si>
+  <si>
+    <t>s70</t>
+  </si>
+  <si>
+    <t>s71</t>
+  </si>
+  <si>
+    <t>s72</t>
+  </si>
+  <si>
+    <t>s73</t>
+  </si>
+  <si>
+    <t>s74</t>
+  </si>
+  <si>
+    <t>s75</t>
+  </si>
+  <si>
+    <t>s76</t>
+  </si>
+  <si>
+    <t>s77</t>
+  </si>
+  <si>
+    <t>s78</t>
+  </si>
+  <si>
+    <t>s79</t>
+  </si>
+  <si>
+    <t>s80</t>
+  </si>
+  <si>
+    <t>s81</t>
+  </si>
+  <si>
+    <t>s82</t>
+  </si>
+  <si>
+    <t>s83</t>
+  </si>
+  <si>
+    <t>s84</t>
+  </si>
+  <si>
+    <t>s85</t>
+  </si>
+  <si>
+    <t>s86</t>
+  </si>
+  <si>
+    <t>s87</t>
+  </si>
+  <si>
+    <t>s88</t>
+  </si>
+  <si>
+    <t>s89</t>
+  </si>
+  <si>
+    <t>s90</t>
+  </si>
+  <si>
+    <t>s91</t>
+  </si>
+  <si>
+    <t>s92</t>
+  </si>
+  <si>
+    <t>s93</t>
+  </si>
+  <si>
+    <t>s94</t>
+  </si>
+  <si>
+    <t>s95</t>
+  </si>
+  <si>
+    <t>s96</t>
+  </si>
+  <si>
+    <t>s97</t>
+  </si>
+  <si>
+    <t>s98</t>
+  </si>
+  <si>
+    <t>s99</t>
+  </si>
+  <si>
+    <t>s100</t>
+  </si>
+  <si>
+    <t>s101</t>
+  </si>
+  <si>
+    <t>s102</t>
+  </si>
+  <si>
+    <t>s103</t>
+  </si>
+  <si>
+    <t>s104</t>
+  </si>
+  <si>
+    <t>s105</t>
+  </si>
+  <si>
+    <t>s106</t>
+  </si>
+  <si>
+    <t>s107</t>
+  </si>
+  <si>
+    <t>s108</t>
+  </si>
+  <si>
+    <t>s109</t>
+  </si>
+  <si>
+    <t>s110</t>
+  </si>
+  <si>
+    <t>s111</t>
+  </si>
+  <si>
+    <t>s112</t>
+  </si>
+  <si>
+    <t>s113</t>
+  </si>
+  <si>
+    <t>s114</t>
+  </si>
+  <si>
+    <t>s115</t>
+  </si>
+  <si>
+    <t>s116</t>
+  </si>
+  <si>
+    <t>s117</t>
+  </si>
+  <si>
+    <t>s118</t>
+  </si>
+  <si>
+    <t>s119</t>
+  </si>
+  <si>
+    <t>s120</t>
+  </si>
+  <si>
+    <t>s121</t>
+  </si>
+  <si>
+    <t>s122</t>
+  </si>
+  <si>
+    <t>s123</t>
+  </si>
+  <si>
+    <t>s124</t>
+  </si>
+  <si>
+    <t>s125</t>
+  </si>
+  <si>
+    <t>s126</t>
+  </si>
+  <si>
+    <t>s127</t>
+  </si>
+  <si>
+    <t>s128</t>
+  </si>
+  <si>
+    <t>s129</t>
+  </si>
+  <si>
+    <t>s130</t>
+  </si>
+  <si>
+    <t>s131</t>
+  </si>
+  <si>
+    <t>s132</t>
+  </si>
+  <si>
+    <t>s133</t>
+  </si>
+  <si>
+    <t>s134</t>
+  </si>
+  <si>
+    <t>s135</t>
+  </si>
+  <si>
+    <t>s136</t>
+  </si>
+  <si>
+    <t>s137</t>
+  </si>
+  <si>
+    <t>s138</t>
+  </si>
+  <si>
+    <t>s139</t>
+  </si>
+  <si>
+    <t>s140</t>
+  </si>
+  <si>
+    <t>s141</t>
+  </si>
+  <si>
+    <t>s142</t>
+  </si>
+  <si>
+    <t>s143</t>
+  </si>
+  <si>
+    <t>s144</t>
+  </si>
+  <si>
+    <t>s145</t>
+  </si>
+  <si>
+    <t>s146</t>
+  </si>
+  <si>
+    <t>s147</t>
+  </si>
+  <si>
+    <t>s148</t>
+  </si>
+  <si>
+    <t>s149</t>
+  </si>
+  <si>
+    <t>s150</t>
+  </si>
+  <si>
+    <t>s151</t>
+  </si>
+  <si>
+    <t>s152</t>
+  </si>
+  <si>
+    <t>s153</t>
+  </si>
+  <si>
+    <t>s154</t>
+  </si>
+  <si>
+    <t>s155</t>
+  </si>
+  <si>
+    <t>s156</t>
+  </si>
+  <si>
+    <t>s157</t>
+  </si>
+  <si>
+    <t>s158</t>
+  </si>
+  <si>
+    <t>s159</t>
+  </si>
+  <si>
+    <t>s160</t>
+  </si>
+  <si>
+    <t>s161</t>
+  </si>
+  <si>
+    <t>s162</t>
+  </si>
+  <si>
+    <t>s163</t>
+  </si>
+  <si>
+    <t>s164</t>
+  </si>
+  <si>
+    <t>s165</t>
+  </si>
+  <si>
+    <t>s166</t>
+  </si>
+  <si>
+    <t>s167</t>
+  </si>
+  <si>
+    <t>s168</t>
+  </si>
+  <si>
+    <t>s169</t>
+  </si>
+  <si>
+    <t>s170</t>
+  </si>
+  <si>
+    <t>s171</t>
+  </si>
+  <si>
+    <t>s172</t>
+  </si>
+  <si>
+    <t>s173</t>
+  </si>
+  <si>
+    <t>s174</t>
+  </si>
+  <si>
+    <t>s175</t>
+  </si>
+  <si>
+    <t>s176</t>
+  </si>
+  <si>
+    <t>s177</t>
+  </si>
+  <si>
+    <t>s178</t>
+  </si>
+  <si>
+    <t>s179</t>
+  </si>
+  <si>
+    <t>s180</t>
+  </si>
+  <si>
+    <t>s181</t>
+  </si>
+  <si>
+    <t>s182</t>
+  </si>
+  <si>
+    <t>s183</t>
+  </si>
+  <si>
+    <t>s184</t>
+  </si>
+  <si>
+    <t>s185</t>
+  </si>
+  <si>
+    <t>s186</t>
+  </si>
+  <si>
+    <t>s187</t>
+  </si>
+  <si>
+    <t>s188</t>
+  </si>
+  <si>
+    <t>s189</t>
+  </si>
+  <si>
+    <t>s190</t>
+  </si>
+  <si>
+    <t>s191</t>
+  </si>
+  <si>
+    <t>s192</t>
+  </si>
+  <si>
+    <t>s193</t>
+  </si>
+  <si>
+    <t>s194</t>
+  </si>
+  <si>
+    <t>s195</t>
+  </si>
+  <si>
+    <t>s196</t>
+  </si>
+  <si>
+    <t>s197</t>
+  </si>
+  <si>
+    <t>s198</t>
+  </si>
+  <si>
+    <t>s199</t>
+  </si>
+  <si>
+    <t>s200</t>
+  </si>
+  <si>
+    <t>s201</t>
+  </si>
+  <si>
+    <t>s202</t>
+  </si>
+  <si>
+    <t>s203</t>
+  </si>
+  <si>
+    <t>s204</t>
+  </si>
+  <si>
+    <t>s205</t>
+  </si>
+  <si>
+    <t>s206</t>
+  </si>
+  <si>
+    <t>s207</t>
+  </si>
+  <si>
+    <t>s208</t>
+  </si>
+  <si>
+    <t>s209</t>
+  </si>
+  <si>
+    <t>s210</t>
+  </si>
+  <si>
+    <t>s211</t>
+  </si>
+  <si>
+    <t>s212</t>
+  </si>
+  <si>
+    <t>s213</t>
+  </si>
+  <si>
+    <t>s214</t>
+  </si>
+  <si>
+    <t>s215</t>
+  </si>
+  <si>
+    <t>s216</t>
+  </si>
+  <si>
+    <t>s217</t>
+  </si>
+  <si>
+    <t>s218</t>
+  </si>
+  <si>
+    <t>s219</t>
+  </si>
+  <si>
+    <t>s220</t>
+  </si>
+  <si>
+    <t>s221</t>
+  </si>
+  <si>
+    <t>s222</t>
+  </si>
+  <si>
+    <t>s223</t>
+  </si>
+  <si>
+    <t>s224</t>
+  </si>
+  <si>
+    <t>s225</t>
+  </si>
+  <si>
+    <t>s226</t>
+  </si>
+  <si>
+    <t>s227</t>
+  </si>
+  <si>
+    <t>s228</t>
+  </si>
+  <si>
+    <t>s229</t>
+  </si>
+  <si>
+    <t>s230</t>
+  </si>
+  <si>
+    <t>s231</t>
+  </si>
+  <si>
+    <t>s232</t>
+  </si>
+  <si>
+    <t>s233</t>
+  </si>
+  <si>
+    <t>s234</t>
+  </si>
+  <si>
+    <t>s235</t>
+  </si>
+  <si>
+    <t>s236</t>
+  </si>
+  <si>
+    <t>s237</t>
+  </si>
+  <si>
+    <t>s238</t>
+  </si>
+  <si>
+    <t>s239</t>
+  </si>
+  <si>
+    <t>s240</t>
+  </si>
+  <si>
+    <t>s241</t>
+  </si>
+  <si>
+    <t>s242</t>
+  </si>
+  <si>
+    <t>s243</t>
+  </si>
+  <si>
+    <t>s244</t>
+  </si>
+  <si>
+    <t>s245</t>
+  </si>
+  <si>
+    <t>s246</t>
+  </si>
+  <si>
+    <t>s247</t>
+  </si>
+  <si>
+    <t>s248</t>
+  </si>
+  <si>
+    <t>s249</t>
+  </si>
+  <si>
+    <t>s250</t>
+  </si>
+  <si>
+    <t>s251</t>
+  </si>
+  <si>
+    <t>s252</t>
+  </si>
+  <si>
+    <t>s253</t>
+  </si>
+  <si>
+    <t>s254</t>
+  </si>
+  <si>
+    <t>s255</t>
+  </si>
+  <si>
+    <t>s256</t>
+  </si>
+  <si>
+    <t>s257</t>
+  </si>
+  <si>
+    <t>s258</t>
+  </si>
+  <si>
+    <t>s259</t>
+  </si>
+  <si>
+    <t>s260</t>
+  </si>
+  <si>
+    <t>s261</t>
+  </si>
+  <si>
+    <t>s262</t>
+  </si>
+  <si>
+    <t>s263</t>
+  </si>
+  <si>
+    <t>s264</t>
+  </si>
+  <si>
+    <t>s265</t>
+  </si>
+  <si>
+    <t>s266</t>
+  </si>
+  <si>
+    <t>s267</t>
+  </si>
+  <si>
+    <t>s268</t>
+  </si>
+  <si>
+    <t>s269</t>
+  </si>
+  <si>
+    <t>s270</t>
+  </si>
+  <si>
+    <t>s271</t>
+  </si>
+  <si>
+    <t>s272</t>
+  </si>
+  <si>
+    <t>s273</t>
+  </si>
+  <si>
+    <t>s274</t>
+  </si>
+  <si>
+    <t>s275</t>
+  </si>
+  <si>
+    <t>s276</t>
+  </si>
+  <si>
+    <t>s277</t>
+  </si>
+  <si>
+    <t>s278</t>
+  </si>
+  <si>
+    <t>s279</t>
+  </si>
+  <si>
+    <t>s280</t>
+  </si>
+  <si>
+    <t>s281</t>
+  </si>
+  <si>
+    <t>s282</t>
+  </si>
+  <si>
+    <t>s283</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1558,16 +2434,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFD014-A071-C843-B0EC-9B05A4E70C0E}">
-  <dimension ref="A1:H284"/>
+  <dimension ref="A1:M284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H1048576"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1584,4827 +2460,5692 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L1" t="s">
+        <v>397</v>
+      </c>
+      <c r="M1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>401</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="H2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I2">
         <v>10000000</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>402</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="H3" t="s">
+        <v>399</v>
+      </c>
+      <c r="I3">
         <v>10000000</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>403</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="H4" t="s">
+        <v>399</v>
+      </c>
+      <c r="I4">
         <v>10000000</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>404</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="H5" t="s">
+        <v>399</v>
+      </c>
+      <c r="I5">
         <v>10000000</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="H6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I6">
         <v>10000000</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>143</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="H7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I7">
         <v>10000000</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>407</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="H8" t="s">
+        <v>399</v>
+      </c>
+      <c r="I8">
         <v>10000000</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>408</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="H9" t="s">
+        <v>399</v>
+      </c>
+      <c r="I9">
         <v>10000000</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>409</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="H10" t="s">
+        <v>399</v>
+      </c>
+      <c r="I10">
         <v>10000000</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>410</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="H11" t="s">
+        <v>399</v>
+      </c>
+      <c r="I11">
         <v>10000000</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="H12" t="s">
+        <v>399</v>
+      </c>
+      <c r="I12">
         <v>10000000</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>121</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>412</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="H13" t="s">
+        <v>399</v>
+      </c>
+      <c r="I13">
         <v>9671988</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>413</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="H14" t="s">
+        <v>399</v>
+      </c>
+      <c r="I14">
         <v>10000000</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>147</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>414</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="H15" t="s">
+        <v>399</v>
+      </c>
+      <c r="I15">
         <v>10000000</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>415</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16">
+      <c r="H16" t="s">
+        <v>399</v>
+      </c>
+      <c r="I16">
         <v>10000000</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>416</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="H17" t="s">
+        <v>399</v>
+      </c>
+      <c r="I17">
         <v>5859663</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>132</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>417</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="H18" t="s">
+        <v>399</v>
+      </c>
+      <c r="I18">
         <v>10000000</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>149</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>418</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="H19" t="s">
+        <v>399</v>
+      </c>
+      <c r="I19">
         <v>10000000</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>132</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>419</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="H20" t="s">
+        <v>399</v>
+      </c>
+      <c r="I20">
         <v>10000000</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>132</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>420</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="H21" t="s">
+        <v>399</v>
+      </c>
+      <c r="I21">
         <v>10000000</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>132</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>421</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="H22" t="s">
+        <v>399</v>
+      </c>
+      <c r="I22">
         <v>1882892</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>422</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23">
+      <c r="H23" t="s">
+        <v>399</v>
+      </c>
+      <c r="I23">
         <v>10000000</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>132</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>423</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24">
+      <c r="H24" t="s">
+        <v>399</v>
+      </c>
+      <c r="I24">
         <v>15559204</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>168</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>424</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="H25" t="s">
+        <v>399</v>
+      </c>
+      <c r="I25">
         <v>19030772</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>172</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>425</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26">
+      <c r="H26" t="s">
+        <v>399</v>
+      </c>
+      <c r="I26">
         <v>10000000</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>426</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27">
+      <c r="H27" t="s">
+        <v>399</v>
+      </c>
+      <c r="I27">
         <v>10000000</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>150</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>427</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28">
+      <c r="H28" t="s">
+        <v>399</v>
+      </c>
+      <c r="I28">
         <v>890273</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>150</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>428</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29">
+      <c r="H29" t="s">
+        <v>399</v>
+      </c>
+      <c r="I29">
         <v>8283298</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>429</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30">
+      <c r="H30" t="s">
+        <v>399</v>
+      </c>
+      <c r="I30">
         <v>10000000</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>150</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31">
+      <c r="H31" t="s">
+        <v>399</v>
+      </c>
+      <c r="I31">
         <v>10000000</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>431</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32">
+      <c r="H32" t="s">
+        <v>399</v>
+      </c>
+      <c r="I32">
         <v>10000000</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>432</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33">
+      <c r="H33" t="s">
+        <v>399</v>
+      </c>
+      <c r="I33">
         <v>10000000</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>150</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>433</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
       </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34">
+      <c r="H34" t="s">
+        <v>399</v>
+      </c>
+      <c r="I34">
         <v>31675232</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>152</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>434</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
       </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35">
+      <c r="H35" t="s">
+        <v>399</v>
+      </c>
+      <c r="I35">
         <v>18719220</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>168</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>435</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36">
+      <c r="H36" t="s">
+        <v>399</v>
+      </c>
+      <c r="I36">
         <v>18561856</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>168</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>436</v>
       </c>
       <c r="C37" t="s">
         <v>51</v>
       </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37">
+      <c r="H37" t="s">
+        <v>399</v>
+      </c>
+      <c r="I37">
         <v>18045608</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>172</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>437</v>
       </c>
       <c r="C38" t="s">
         <v>54</v>
       </c>
-      <c r="F38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38">
+      <c r="H38" t="s">
+        <v>399</v>
+      </c>
+      <c r="I38">
         <v>38888888</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>180</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>438</v>
       </c>
       <c r="C39" t="s">
         <v>56</v>
       </c>
-      <c r="F39" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39">
+      <c r="H39" t="s">
+        <v>399</v>
+      </c>
+      <c r="I39">
         <v>15617074</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>172</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>439</v>
       </c>
       <c r="C40" t="s">
         <v>56</v>
       </c>
-      <c r="F40" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40">
+      <c r="H40" t="s">
+        <v>399</v>
+      </c>
+      <c r="I40">
         <v>12770433</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>172</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>440</v>
       </c>
       <c r="C41" t="s">
         <v>59</v>
       </c>
-      <c r="F41" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41">
+      <c r="H41" t="s">
+        <v>399</v>
+      </c>
+      <c r="I41">
         <v>27783497</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>441</v>
       </c>
       <c r="C42" t="s">
         <v>59</v>
       </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42">
+      <c r="H42" t="s">
+        <v>399</v>
+      </c>
+      <c r="I42">
         <v>29639484</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>200</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>442</v>
       </c>
       <c r="C43" t="s">
         <v>62</v>
       </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43">
+      <c r="H43" t="s">
+        <v>399</v>
+      </c>
+      <c r="I43">
         <v>35851202</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>152</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>443</v>
       </c>
       <c r="C44" t="s">
         <v>62</v>
       </c>
-      <c r="F44" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44">
+      <c r="H44" t="s">
+        <v>399</v>
+      </c>
+      <c r="I44">
         <v>18797341</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>168</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>444</v>
       </c>
       <c r="C45" t="s">
         <v>65</v>
       </c>
-      <c r="F45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45">
+      <c r="H45" t="s">
+        <v>399</v>
+      </c>
+      <c r="I45">
         <v>28549650</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>152</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>445</v>
       </c>
       <c r="C46" t="s">
         <v>67</v>
       </c>
-      <c r="F46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46">
+      <c r="H46" t="s">
+        <v>399</v>
+      </c>
+      <c r="I46">
         <v>38888888</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>180</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>446</v>
       </c>
       <c r="C47" t="s">
         <v>69</v>
       </c>
-      <c r="F47" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47">
+      <c r="H47" t="s">
+        <v>399</v>
+      </c>
+      <c r="I47">
         <v>28042962</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>447</v>
       </c>
       <c r="C48" t="s">
         <v>69</v>
       </c>
-      <c r="F48" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48">
+      <c r="H48" t="s">
+        <v>399</v>
+      </c>
+      <c r="I48">
         <v>26099177</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>448</v>
       </c>
       <c r="C49" t="s">
         <v>72</v>
       </c>
-      <c r="F49" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49">
+      <c r="H49" t="s">
+        <v>399</v>
+      </c>
+      <c r="I49">
         <v>28323237</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>449</v>
       </c>
       <c r="C50" t="s">
         <v>72</v>
       </c>
-      <c r="F50" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50">
+      <c r="H50" t="s">
+        <v>399</v>
+      </c>
+      <c r="I50">
         <v>24255835</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>200</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>450</v>
       </c>
       <c r="C51" t="s">
         <v>75</v>
       </c>
-      <c r="F51" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51">
+      <c r="H51" t="s">
+        <v>399</v>
+      </c>
+      <c r="I51">
         <v>38888888</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>180</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>451</v>
       </c>
       <c r="C52" t="s">
         <v>77</v>
       </c>
-      <c r="F52" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52">
+      <c r="H52" t="s">
+        <v>399</v>
+      </c>
+      <c r="I52">
         <v>19332442</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>168</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="C53" t="s">
         <v>77</v>
       </c>
-      <c r="F53" t="b">
-        <v>1</v>
-      </c>
-      <c r="G53">
+      <c r="H53" t="s">
+        <v>399</v>
+      </c>
+      <c r="I53">
         <v>19775341</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>168</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="C54" t="s">
         <v>80</v>
       </c>
-      <c r="F54" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54">
+      <c r="H54" t="s">
+        <v>399</v>
+      </c>
+      <c r="I54">
         <v>13650243</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>168</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>454</v>
       </c>
       <c r="C55" t="s">
         <v>80</v>
       </c>
-      <c r="F55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55">
+      <c r="H55" t="s">
+        <v>399</v>
+      </c>
+      <c r="I55">
         <v>18757198</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>172</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="C56" t="s">
         <v>83</v>
       </c>
-      <c r="F56" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56">
+      <c r="H56" t="s">
+        <v>399</v>
+      </c>
+      <c r="I56">
         <v>11314591</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>152</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>456</v>
       </c>
       <c r="C57" t="s">
         <v>83</v>
       </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57">
+      <c r="H57" t="s">
+        <v>400</v>
+      </c>
+      <c r="I57">
         <v>17608427</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>76</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>457</v>
       </c>
       <c r="C58" t="s">
         <v>83</v>
       </c>
-      <c r="F58" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58">
+      <c r="H58" t="s">
+        <v>399</v>
+      </c>
+      <c r="I58">
         <v>17672614</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>152</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>458</v>
       </c>
       <c r="C59" t="s">
         <v>87</v>
       </c>
-      <c r="F59" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59">
+      <c r="H59" t="s">
+        <v>399</v>
+      </c>
+      <c r="I59">
         <v>29029824</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>459</v>
       </c>
       <c r="C60" t="s">
         <v>87</v>
       </c>
-      <c r="F60" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60">
+      <c r="H60" t="s">
+        <v>399</v>
+      </c>
+      <c r="I60">
         <v>28119285</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>460</v>
       </c>
       <c r="C61" t="s">
         <v>90</v>
       </c>
-      <c r="F61" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61">
+      <c r="H61" t="s">
+        <v>399</v>
+      </c>
+      <c r="I61">
         <v>33666438</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>152</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>461</v>
       </c>
       <c r="C62" t="s">
         <v>90</v>
       </c>
-      <c r="F62" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62">
+      <c r="H62" t="s">
+        <v>399</v>
+      </c>
+      <c r="I62">
         <v>18689902</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>168</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>462</v>
       </c>
       <c r="C63" t="s">
         <v>19</v>
       </c>
-      <c r="F63" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63">
+      <c r="H63" t="s">
+        <v>399</v>
+      </c>
+      <c r="I63">
         <v>2429553</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>150</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>463</v>
       </c>
       <c r="C64" t="s">
         <v>19</v>
       </c>
-      <c r="F64" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64">
+      <c r="H64" t="s">
+        <v>399</v>
+      </c>
+      <c r="I64">
         <v>10000000</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>150</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>464</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
       </c>
-      <c r="F65" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65">
+      <c r="H65" t="s">
+        <v>399</v>
+      </c>
+      <c r="I65">
         <v>10000000</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>150</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>465</v>
       </c>
       <c r="C66" t="s">
         <v>19</v>
       </c>
-      <c r="F66" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66">
+      <c r="H66" t="s">
+        <v>399</v>
+      </c>
+      <c r="I66">
         <v>10000000</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>150</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>466</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
       </c>
-      <c r="F67" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67">
+      <c r="H67" t="s">
+        <v>399</v>
+      </c>
+      <c r="I67">
         <v>10000000</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>150</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>467</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
       </c>
-      <c r="F68" t="b">
-        <v>1</v>
-      </c>
-      <c r="G68">
+      <c r="H68" t="s">
+        <v>399</v>
+      </c>
+      <c r="I68">
         <v>4125812</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>150</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>468</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
       </c>
-      <c r="F69" t="b">
-        <v>1</v>
-      </c>
-      <c r="G69">
+      <c r="H69" t="s">
+        <v>399</v>
+      </c>
+      <c r="I69">
         <v>10000000</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>150</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>469</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
       </c>
-      <c r="F70" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70">
+      <c r="H70" t="s">
+        <v>399</v>
+      </c>
+      <c r="I70">
         <v>10000000</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>150</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="C71" t="s">
         <v>19</v>
       </c>
-      <c r="F71" t="b">
-        <v>1</v>
-      </c>
-      <c r="G71">
+      <c r="H71" t="s">
+        <v>399</v>
+      </c>
+      <c r="I71">
         <v>10000000</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>150</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>471</v>
       </c>
       <c r="C72" t="s">
         <v>19</v>
       </c>
-      <c r="F72" t="b">
-        <v>1</v>
-      </c>
-      <c r="G72">
+      <c r="H72" t="s">
+        <v>399</v>
+      </c>
+      <c r="I72">
         <v>10000000</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>150</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>472</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
       </c>
-      <c r="F73" t="b">
-        <v>1</v>
-      </c>
-      <c r="G73">
+      <c r="H73" t="s">
+        <v>399</v>
+      </c>
+      <c r="I73">
         <v>8257699</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>150</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>473</v>
       </c>
       <c r="C74" t="s">
         <v>19</v>
       </c>
-      <c r="F74" t="b">
-        <v>1</v>
-      </c>
-      <c r="G74">
+      <c r="H74" t="s">
+        <v>399</v>
+      </c>
+      <c r="I74">
         <v>10000000</v>
       </c>
-      <c r="H74">
+      <c r="J74">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>474</v>
       </c>
       <c r="C75" t="s">
         <v>105</v>
       </c>
-      <c r="F75" t="b">
-        <v>1</v>
-      </c>
-      <c r="G75">
+      <c r="H75" t="s">
+        <v>399</v>
+      </c>
+      <c r="I75">
         <v>21044761</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>250</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>475</v>
       </c>
       <c r="C76" t="s">
         <v>105</v>
       </c>
-      <c r="F76" t="b">
-        <v>1</v>
-      </c>
-      <c r="G76">
+      <c r="H76" t="s">
+        <v>399</v>
+      </c>
+      <c r="I76">
         <v>16949218</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>168</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>476</v>
       </c>
       <c r="C77" t="s">
         <v>108</v>
       </c>
-      <c r="F77" t="b">
-        <v>1</v>
-      </c>
-      <c r="G77">
+      <c r="H77" t="s">
+        <v>399</v>
+      </c>
+      <c r="I77">
         <v>18785809</v>
       </c>
-      <c r="H77">
+      <c r="J77">
         <v>168</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>477</v>
       </c>
       <c r="C78" t="s">
         <v>108</v>
       </c>
-      <c r="F78" t="b">
-        <v>1</v>
-      </c>
-      <c r="G78">
+      <c r="H78" t="s">
+        <v>399</v>
+      </c>
+      <c r="I78">
         <v>18181358</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>168</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>478</v>
       </c>
       <c r="C79" t="s">
         <v>108</v>
       </c>
-      <c r="F79" t="b">
-        <v>1</v>
-      </c>
-      <c r="G79">
+      <c r="H79" t="s">
+        <v>399</v>
+      </c>
+      <c r="I79">
         <v>19977433</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>160</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>479</v>
       </c>
       <c r="C80" t="s">
         <v>112</v>
       </c>
-      <c r="F80" t="b">
-        <v>1</v>
-      </c>
-      <c r="G80">
+      <c r="H80" t="s">
+        <v>399</v>
+      </c>
+      <c r="I80">
         <v>24134804</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>152</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>480</v>
       </c>
       <c r="C81" t="s">
         <v>112</v>
       </c>
-      <c r="F81" t="b">
-        <v>1</v>
-      </c>
-      <c r="G81">
+      <c r="H81" t="s">
+        <v>399</v>
+      </c>
+      <c r="I81">
         <v>27215064</v>
       </c>
-      <c r="H81">
+      <c r="J81">
         <v>152</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>481</v>
       </c>
       <c r="C82" t="s">
         <v>115</v>
       </c>
-      <c r="F82" t="b">
-        <v>1</v>
-      </c>
-      <c r="G82">
+      <c r="H82" t="s">
+        <v>399</v>
+      </c>
+      <c r="I82">
         <v>18319069</v>
       </c>
-      <c r="H82">
+      <c r="J82">
         <v>168</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>482</v>
       </c>
       <c r="C83" t="s">
         <v>115</v>
       </c>
-      <c r="F83" t="b">
-        <v>1</v>
-      </c>
-      <c r="G83">
+      <c r="H83" t="s">
+        <v>399</v>
+      </c>
+      <c r="I83">
         <v>17010645</v>
       </c>
-      <c r="H83">
+      <c r="J83">
         <v>172</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>483</v>
       </c>
       <c r="C84" t="s">
         <v>115</v>
       </c>
-      <c r="F84" t="b">
-        <v>1</v>
-      </c>
-      <c r="G84">
+      <c r="H84" t="s">
+        <v>399</v>
+      </c>
+      <c r="I84">
         <v>20377986</v>
       </c>
-      <c r="H84">
+      <c r="J84">
         <v>250</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>484</v>
       </c>
       <c r="C85" t="s">
         <v>119</v>
       </c>
-      <c r="F85" t="b">
-        <v>1</v>
-      </c>
-      <c r="G85">
+      <c r="H85" t="s">
+        <v>399</v>
+      </c>
+      <c r="I85">
         <v>38888888</v>
       </c>
-      <c r="H85">
+      <c r="J85">
         <v>180</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>485</v>
       </c>
       <c r="C86" t="s">
         <v>121</v>
       </c>
-      <c r="F86" t="b">
-        <v>1</v>
-      </c>
-      <c r="G86">
+      <c r="H86" t="s">
+        <v>399</v>
+      </c>
+      <c r="I86">
         <v>30828902</v>
       </c>
-      <c r="H86">
+      <c r="J86">
         <v>152</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>486</v>
       </c>
       <c r="C87" t="s">
         <v>121</v>
       </c>
-      <c r="F87" t="b">
-        <v>1</v>
-      </c>
-      <c r="G87">
+      <c r="H87" t="s">
+        <v>399</v>
+      </c>
+      <c r="I87">
         <v>30894029</v>
       </c>
-      <c r="H87">
+      <c r="J87">
         <v>152</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>487</v>
       </c>
       <c r="C88" t="s">
         <v>124</v>
       </c>
-      <c r="F88" t="b">
-        <v>1</v>
-      </c>
-      <c r="G88">
+      <c r="H88" t="s">
+        <v>399</v>
+      </c>
+      <c r="I88">
         <v>38888888</v>
       </c>
-      <c r="H88">
+      <c r="J88">
         <v>180</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>488</v>
       </c>
       <c r="C89" t="s">
         <v>126</v>
       </c>
-      <c r="F89" t="b">
-        <v>1</v>
-      </c>
-      <c r="G89">
+      <c r="H89" t="s">
+        <v>399</v>
+      </c>
+      <c r="I89">
         <v>29547687</v>
       </c>
-      <c r="H89">
+      <c r="J89">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>489</v>
       </c>
       <c r="C90" t="s">
         <v>126</v>
       </c>
-      <c r="F90" t="b">
-        <v>1</v>
-      </c>
-      <c r="G90">
+      <c r="H90" t="s">
+        <v>399</v>
+      </c>
+      <c r="I90">
         <v>27259792</v>
       </c>
-      <c r="H90">
+      <c r="J90">
         <v>200</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>490</v>
       </c>
       <c r="C91" t="s">
         <v>129</v>
       </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91">
+      <c r="H91" t="s">
+        <v>400</v>
+      </c>
+      <c r="I91">
         <v>18072764</v>
       </c>
-      <c r="H91">
+      <c r="J91">
         <v>76</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>491</v>
       </c>
       <c r="C92" t="s">
         <v>129</v>
       </c>
-      <c r="F92" t="b">
-        <v>1</v>
-      </c>
-      <c r="G92">
+      <c r="H92" t="s">
+        <v>399</v>
+      </c>
+      <c r="I92">
         <v>18951564</v>
       </c>
-      <c r="H92">
+      <c r="J92">
         <v>152</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>492</v>
       </c>
       <c r="C93" t="s">
         <v>129</v>
       </c>
-      <c r="F93" t="b">
-        <v>1</v>
-      </c>
-      <c r="G93">
+      <c r="H93" t="s">
+        <v>399</v>
+      </c>
+      <c r="I93">
         <v>11667138</v>
       </c>
-      <c r="H93">
+      <c r="J93">
         <v>152</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>493</v>
       </c>
       <c r="C94" t="s">
         <v>133</v>
       </c>
-      <c r="F94" t="b">
-        <v>1</v>
-      </c>
-      <c r="G94">
+      <c r="H94" t="s">
+        <v>399</v>
+      </c>
+      <c r="I94">
         <v>17819349</v>
       </c>
-      <c r="H94">
+      <c r="J94">
         <v>172</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>494</v>
       </c>
       <c r="C95" t="s">
         <v>133</v>
       </c>
-      <c r="F95" t="b">
-        <v>1</v>
-      </c>
-      <c r="G95">
+      <c r="H95" t="s">
+        <v>399</v>
+      </c>
+      <c r="I95">
         <v>13678506</v>
       </c>
-      <c r="H95">
+      <c r="J95">
         <v>168</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>135</v>
+        <v>495</v>
       </c>
       <c r="C96" t="s">
         <v>136</v>
       </c>
-      <c r="F96" t="b">
-        <v>1</v>
-      </c>
-      <c r="G96">
+      <c r="H96" t="s">
+        <v>399</v>
+      </c>
+      <c r="I96">
         <v>28389043</v>
       </c>
-      <c r="H96">
+      <c r="J96">
         <v>200</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>496</v>
       </c>
       <c r="C97" t="s">
         <v>138</v>
       </c>
-      <c r="F97" t="b">
-        <v>1</v>
-      </c>
-      <c r="G97">
+      <c r="H97" t="s">
+        <v>399</v>
+      </c>
+      <c r="I97">
         <v>13799654</v>
       </c>
-      <c r="H97">
+      <c r="J97">
         <v>168</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>497</v>
       </c>
       <c r="C98" t="s">
         <v>140</v>
       </c>
-      <c r="F98" t="b">
-        <v>1</v>
-      </c>
-      <c r="G98">
+      <c r="H98" t="s">
+        <v>399</v>
+      </c>
+      <c r="I98">
         <v>28348831</v>
       </c>
-      <c r="H98">
+      <c r="J98">
         <v>200</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>141</v>
+        <v>498</v>
       </c>
       <c r="C99" t="s">
         <v>140</v>
       </c>
-      <c r="F99" t="b">
-        <v>1</v>
-      </c>
-      <c r="G99">
+      <c r="H99" t="s">
+        <v>399</v>
+      </c>
+      <c r="I99">
         <v>29024280</v>
       </c>
-      <c r="H99">
+      <c r="J99">
         <v>200</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>142</v>
+        <v>499</v>
       </c>
       <c r="C100" t="s">
         <v>143</v>
       </c>
-      <c r="F100" t="b">
-        <v>1</v>
-      </c>
-      <c r="G100">
+      <c r="H100" t="s">
+        <v>399</v>
+      </c>
+      <c r="I100">
         <v>27112512</v>
       </c>
-      <c r="H100">
+      <c r="J100">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>144</v>
+        <v>500</v>
       </c>
       <c r="C101" t="s">
         <v>143</v>
       </c>
-      <c r="F101" t="b">
-        <v>1</v>
-      </c>
-      <c r="G101">
+      <c r="H101" t="s">
+        <v>399</v>
+      </c>
+      <c r="I101">
         <v>28847684</v>
       </c>
-      <c r="H101">
+      <c r="J101">
         <v>200</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>145</v>
+        <v>501</v>
       </c>
       <c r="C102" t="s">
         <v>146</v>
       </c>
-      <c r="F102" t="b">
-        <v>1</v>
-      </c>
-      <c r="G102">
+      <c r="H102" t="s">
+        <v>399</v>
+      </c>
+      <c r="I102">
         <v>17787919</v>
       </c>
-      <c r="H102">
+      <c r="J102">
         <v>168</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>147</v>
+        <v>502</v>
       </c>
       <c r="C103" t="s">
         <v>146</v>
       </c>
-      <c r="F103" t="b">
-        <v>1</v>
-      </c>
-      <c r="G103">
+      <c r="H103" t="s">
+        <v>399</v>
+      </c>
+      <c r="I103">
         <v>25211629</v>
       </c>
-      <c r="H103">
+      <c r="J103">
         <v>152</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K103" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>148</v>
+        <v>503</v>
       </c>
       <c r="C104" t="s">
         <v>146</v>
       </c>
-      <c r="F104" t="b">
-        <v>1</v>
-      </c>
-      <c r="G104">
+      <c r="H104" t="s">
+        <v>399</v>
+      </c>
+      <c r="I104">
         <v>30538361</v>
       </c>
-      <c r="H104">
+      <c r="J104">
         <v>200</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>149</v>
+        <v>504</v>
       </c>
       <c r="C105" t="s">
         <v>146</v>
       </c>
-      <c r="F105" t="b">
-        <v>1</v>
-      </c>
-      <c r="G105">
+      <c r="H105" t="s">
+        <v>399</v>
+      </c>
+      <c r="I105">
         <v>29130991</v>
       </c>
-      <c r="H105">
+      <c r="J105">
         <v>200</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>150</v>
+        <v>505</v>
       </c>
       <c r="C106" t="s">
         <v>151</v>
       </c>
-      <c r="F106" t="b">
-        <v>1</v>
-      </c>
-      <c r="G106">
+      <c r="H106" t="s">
+        <v>399</v>
+      </c>
+      <c r="I106">
         <v>38888888</v>
       </c>
-      <c r="H106">
+      <c r="J106">
         <v>180</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>152</v>
+        <v>506</v>
       </c>
       <c r="C107" t="s">
         <v>153</v>
       </c>
-      <c r="F107" t="b">
-        <v>1</v>
-      </c>
-      <c r="G107">
+      <c r="H107" t="s">
+        <v>399</v>
+      </c>
+      <c r="I107">
         <v>27654807</v>
       </c>
-      <c r="H107">
+      <c r="J107">
         <v>152</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K107" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>154</v>
+        <v>507</v>
       </c>
       <c r="C108" t="s">
         <v>153</v>
       </c>
-      <c r="F108" t="b">
-        <v>1</v>
-      </c>
-      <c r="G108">
+      <c r="H108" t="s">
+        <v>399</v>
+      </c>
+      <c r="I108">
         <v>34109646</v>
       </c>
-      <c r="H108">
+      <c r="J108">
         <v>152</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K108" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>155</v>
+        <v>508</v>
       </c>
       <c r="C109" t="s">
         <v>156</v>
       </c>
-      <c r="F109" t="b">
-        <v>1</v>
-      </c>
-      <c r="G109">
+      <c r="H109" t="s">
+        <v>399</v>
+      </c>
+      <c r="I109">
         <v>38888888</v>
       </c>
-      <c r="H109">
+      <c r="J109">
         <v>180</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K109" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>157</v>
+        <v>509</v>
       </c>
       <c r="C110" t="s">
         <v>158</v>
       </c>
-      <c r="F110" t="b">
-        <v>1</v>
-      </c>
-      <c r="G110">
+      <c r="H110" t="s">
+        <v>399</v>
+      </c>
+      <c r="I110">
         <v>29282046</v>
       </c>
-      <c r="H110">
+      <c r="J110">
         <v>200</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>159</v>
+        <v>510</v>
       </c>
       <c r="C111" t="s">
         <v>158</v>
       </c>
-      <c r="F111" t="b">
-        <v>1</v>
-      </c>
-      <c r="G111">
+      <c r="H111" t="s">
+        <v>399</v>
+      </c>
+      <c r="I111">
         <v>24111525</v>
       </c>
-      <c r="H111">
+      <c r="J111">
         <v>200</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K111" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>160</v>
+        <v>511</v>
       </c>
       <c r="C112" t="s">
         <v>161</v>
       </c>
-      <c r="F112" t="b">
-        <v>1</v>
-      </c>
-      <c r="G112">
+      <c r="H112" t="s">
+        <v>399</v>
+      </c>
+      <c r="I112">
         <v>18093356</v>
       </c>
-      <c r="H112">
+      <c r="J112">
         <v>168</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>162</v>
+        <v>512</v>
       </c>
       <c r="C113" t="s">
         <v>161</v>
       </c>
-      <c r="F113" t="b">
-        <v>1</v>
-      </c>
-      <c r="G113">
+      <c r="H113" t="s">
+        <v>399</v>
+      </c>
+      <c r="I113">
         <v>16139719</v>
       </c>
-      <c r="H113">
+      <c r="J113">
         <v>168</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>163</v>
+        <v>513</v>
       </c>
       <c r="C114" t="s">
         <v>161</v>
       </c>
-      <c r="F114" t="b">
-        <v>1</v>
-      </c>
-      <c r="G114">
+      <c r="H114" t="s">
+        <v>399</v>
+      </c>
+      <c r="I114">
         <v>12216049</v>
       </c>
-      <c r="H114">
+      <c r="J114">
         <v>172</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>164</v>
+        <v>514</v>
       </c>
       <c r="C115" t="s">
         <v>161</v>
       </c>
-      <c r="F115" t="b">
-        <v>0</v>
-      </c>
-      <c r="G115">
+      <c r="H115" t="s">
+        <v>400</v>
+      </c>
+      <c r="I115">
         <v>16969851</v>
       </c>
-      <c r="H115">
+      <c r="J115">
         <v>84</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K115" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>165</v>
+        <v>515</v>
       </c>
       <c r="C116" t="s">
         <v>166</v>
       </c>
-      <c r="F116" t="b">
-        <v>1</v>
-      </c>
-      <c r="G116">
+      <c r="H116" t="s">
+        <v>399</v>
+      </c>
+      <c r="I116">
         <v>38888888</v>
       </c>
-      <c r="H116">
+      <c r="J116">
         <v>180</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K116" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>167</v>
+        <v>516</v>
       </c>
       <c r="C117" t="s">
         <v>168</v>
       </c>
-      <c r="F117" t="b">
-        <v>1</v>
-      </c>
-      <c r="G117">
+      <c r="H117" t="s">
+        <v>399</v>
+      </c>
+      <c r="I117">
         <v>14685650</v>
       </c>
-      <c r="H117">
+      <c r="J117">
         <v>172</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K117" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>169</v>
+        <v>517</v>
       </c>
       <c r="C118" t="s">
         <v>168</v>
       </c>
-      <c r="F118" t="b">
-        <v>1</v>
-      </c>
-      <c r="G118">
+      <c r="H118" t="s">
+        <v>399</v>
+      </c>
+      <c r="I118">
         <v>5045023</v>
       </c>
-      <c r="H118">
+      <c r="J118">
         <v>172</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="C119" t="s">
         <v>168</v>
       </c>
-      <c r="F119" t="b">
-        <v>1</v>
-      </c>
-      <c r="G119">
+      <c r="H119" t="s">
+        <v>399</v>
+      </c>
+      <c r="I119">
         <v>18872131</v>
       </c>
-      <c r="H119">
+      <c r="J119">
         <v>152</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>171</v>
+        <v>519</v>
       </c>
       <c r="C120" t="s">
         <v>172</v>
       </c>
-      <c r="F120" t="b">
-        <v>1</v>
-      </c>
-      <c r="G120">
+      <c r="H120" t="s">
+        <v>399</v>
+      </c>
+      <c r="I120">
         <v>38888888</v>
       </c>
-      <c r="H120">
+      <c r="J120">
         <v>180</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K120" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>173</v>
+        <v>520</v>
       </c>
       <c r="C121" t="s">
         <v>21</v>
       </c>
-      <c r="F121" t="b">
-        <v>1</v>
-      </c>
-      <c r="G121">
+      <c r="H121" t="s">
+        <v>399</v>
+      </c>
+      <c r="I121">
         <v>10000000</v>
       </c>
-      <c r="H121">
+      <c r="J121">
         <v>150</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K121" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>174</v>
+        <v>521</v>
       </c>
       <c r="C122" t="s">
         <v>21</v>
       </c>
-      <c r="F122" t="b">
-        <v>1</v>
-      </c>
-      <c r="G122">
+      <c r="H122" t="s">
+        <v>399</v>
+      </c>
+      <c r="I122">
         <v>10000000</v>
       </c>
-      <c r="H122">
+      <c r="J122">
         <v>150</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K122" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>175</v>
+        <v>522</v>
       </c>
       <c r="C123" t="s">
         <v>21</v>
       </c>
-      <c r="F123" t="b">
-        <v>1</v>
-      </c>
-      <c r="G123">
+      <c r="H123" t="s">
+        <v>399</v>
+      </c>
+      <c r="I123">
         <v>10000000</v>
       </c>
-      <c r="H123">
+      <c r="J123">
         <v>150</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K123" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>176</v>
+        <v>523</v>
       </c>
       <c r="C124" t="s">
         <v>21</v>
       </c>
-      <c r="F124" t="b">
-        <v>1</v>
-      </c>
-      <c r="G124">
+      <c r="H124" t="s">
+        <v>399</v>
+      </c>
+      <c r="I124">
         <v>2561933</v>
       </c>
-      <c r="H124">
+      <c r="J124">
         <v>150</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K124" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>177</v>
+        <v>524</v>
       </c>
       <c r="C125" t="s">
         <v>21</v>
       </c>
-      <c r="F125" t="b">
-        <v>1</v>
-      </c>
-      <c r="G125">
+      <c r="H125" t="s">
+        <v>399</v>
+      </c>
+      <c r="I125">
         <v>3853147</v>
       </c>
-      <c r="H125">
+      <c r="J125">
         <v>150</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K125" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>178</v>
+        <v>525</v>
       </c>
       <c r="C126" t="s">
         <v>21</v>
       </c>
-      <c r="F126" t="b">
-        <v>1</v>
-      </c>
-      <c r="G126">
+      <c r="H126" t="s">
+        <v>399</v>
+      </c>
+      <c r="I126">
         <v>10000000</v>
       </c>
-      <c r="H126">
+      <c r="J126">
         <v>150</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K126" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>179</v>
+        <v>526</v>
       </c>
       <c r="C127" t="s">
         <v>21</v>
       </c>
-      <c r="F127" t="b">
-        <v>1</v>
-      </c>
-      <c r="G127">
+      <c r="H127" t="s">
+        <v>399</v>
+      </c>
+      <c r="I127">
         <v>10000000</v>
       </c>
-      <c r="H127">
+      <c r="J127">
         <v>150</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K127" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>180</v>
+        <v>527</v>
       </c>
       <c r="C128" t="s">
         <v>21</v>
       </c>
-      <c r="F128" t="b">
-        <v>1</v>
-      </c>
-      <c r="G128">
+      <c r="H128" t="s">
+        <v>399</v>
+      </c>
+      <c r="I128">
         <v>10000000</v>
       </c>
-      <c r="H128">
+      <c r="J128">
         <v>150</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K128" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>181</v>
+        <v>528</v>
       </c>
       <c r="C129" t="s">
         <v>21</v>
       </c>
-      <c r="F129" t="b">
-        <v>1</v>
-      </c>
-      <c r="G129">
+      <c r="H129" t="s">
+        <v>399</v>
+      </c>
+      <c r="I129">
         <v>10000000</v>
       </c>
-      <c r="H129">
+      <c r="J129">
         <v>150</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>182</v>
+        <v>529</v>
       </c>
       <c r="C130" t="s">
         <v>183</v>
       </c>
-      <c r="F130" t="b">
-        <v>1</v>
-      </c>
-      <c r="G130">
+      <c r="H130" t="s">
+        <v>399</v>
+      </c>
+      <c r="I130">
         <v>28636327</v>
       </c>
-      <c r="H130">
+      <c r="J130">
         <v>152</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K130" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>184</v>
+        <v>530</v>
       </c>
       <c r="C131" t="s">
         <v>185</v>
       </c>
-      <c r="F131" t="b">
-        <v>0</v>
-      </c>
-      <c r="G131">
+      <c r="H131" t="s">
+        <v>400</v>
+      </c>
+      <c r="I131">
         <v>12541409</v>
       </c>
-      <c r="H131">
+      <c r="J131">
         <v>76</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K131" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>186</v>
+        <v>531</v>
       </c>
       <c r="C132" t="s">
         <v>185</v>
       </c>
-      <c r="F132" t="b">
-        <v>1</v>
-      </c>
-      <c r="G132">
+      <c r="H132" t="s">
+        <v>399</v>
+      </c>
+      <c r="I132">
         <v>10237404</v>
       </c>
-      <c r="H132">
+      <c r="J132">
         <v>152</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K132" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>187</v>
+        <v>532</v>
       </c>
       <c r="C133" t="s">
         <v>185</v>
       </c>
-      <c r="F133" t="b">
-        <v>1</v>
-      </c>
-      <c r="G133">
+      <c r="H133" t="s">
+        <v>399</v>
+      </c>
+      <c r="I133">
         <v>13070620</v>
       </c>
-      <c r="H133">
+      <c r="J133">
         <v>152</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K133" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>188</v>
+        <v>533</v>
       </c>
       <c r="C134" t="s">
         <v>189</v>
       </c>
-      <c r="F134" t="b">
-        <v>1</v>
-      </c>
-      <c r="G134">
+      <c r="H134" t="s">
+        <v>399</v>
+      </c>
+      <c r="I134">
         <v>30652462</v>
       </c>
-      <c r="H134">
+      <c r="J134">
         <v>152</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K134" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>190</v>
+        <v>534</v>
       </c>
       <c r="C135" t="s">
         <v>189</v>
       </c>
-      <c r="F135" t="b">
-        <v>1</v>
-      </c>
-      <c r="G135">
+      <c r="H135" t="s">
+        <v>399</v>
+      </c>
+      <c r="I135">
         <v>30620626</v>
       </c>
-      <c r="H135">
+      <c r="J135">
         <v>152</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K135" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>191</v>
+        <v>535</v>
       </c>
       <c r="C136" t="s">
         <v>192</v>
       </c>
-      <c r="F136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G136">
+      <c r="H136" t="s">
+        <v>399</v>
+      </c>
+      <c r="I136">
         <v>25016058</v>
       </c>
-      <c r="H136">
+      <c r="J136">
         <v>200</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K136" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>536</v>
       </c>
       <c r="C137" t="s">
         <v>192</v>
       </c>
-      <c r="F137" t="b">
-        <v>1</v>
-      </c>
-      <c r="G137">
+      <c r="H137" t="s">
+        <v>399</v>
+      </c>
+      <c r="I137">
         <v>29966920</v>
       </c>
-      <c r="H137">
+      <c r="J137">
         <v>200</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K137" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>194</v>
+        <v>537</v>
       </c>
       <c r="C138" t="s">
         <v>195</v>
       </c>
-      <c r="F138" t="b">
-        <v>1</v>
-      </c>
-      <c r="G138">
+      <c r="H138" t="s">
+        <v>399</v>
+      </c>
+      <c r="I138">
         <v>28460789</v>
       </c>
-      <c r="H138">
+      <c r="J138">
         <v>200</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K138" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>196</v>
+        <v>538</v>
       </c>
       <c r="C139" t="s">
         <v>195</v>
       </c>
-      <c r="F139" t="b">
-        <v>1</v>
-      </c>
-      <c r="G139">
+      <c r="H139" t="s">
+        <v>399</v>
+      </c>
+      <c r="I139">
         <v>29169236</v>
       </c>
-      <c r="H139">
+      <c r="J139">
         <v>200</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K139" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="C140" t="s">
         <v>198</v>
       </c>
-      <c r="F140" t="b">
-        <v>1</v>
-      </c>
-      <c r="G140">
+      <c r="H140" t="s">
+        <v>399</v>
+      </c>
+      <c r="I140">
         <v>38888888</v>
       </c>
-      <c r="H140">
+      <c r="J140">
         <v>180</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K140" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>199</v>
+        <v>540</v>
       </c>
       <c r="C141" t="s">
         <v>200</v>
       </c>
-      <c r="F141" t="b">
-        <v>1</v>
-      </c>
-      <c r="G141">
+      <c r="H141" t="s">
+        <v>399</v>
+      </c>
+      <c r="I141">
         <v>12112723</v>
       </c>
-      <c r="H141">
+      <c r="J141">
         <v>152</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K141" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>201</v>
+        <v>541</v>
       </c>
       <c r="C142" t="s">
         <v>200</v>
       </c>
-      <c r="F142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G142">
+      <c r="H142" t="s">
+        <v>400</v>
+      </c>
+      <c r="I142">
         <v>18436047</v>
       </c>
-      <c r="H142">
+      <c r="J142">
         <v>76</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K142" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>202</v>
+        <v>542</v>
       </c>
       <c r="C143" t="s">
         <v>200</v>
       </c>
-      <c r="F143" t="b">
-        <v>1</v>
-      </c>
-      <c r="G143">
+      <c r="H143" t="s">
+        <v>399</v>
+      </c>
+      <c r="I143">
         <v>19356093</v>
       </c>
-      <c r="H143">
+      <c r="J143">
         <v>152</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K143" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>203</v>
+        <v>543</v>
       </c>
       <c r="C144" t="s">
         <v>204</v>
       </c>
-      <c r="F144" t="b">
-        <v>1</v>
-      </c>
-      <c r="G144">
+      <c r="H144" t="s">
+        <v>399</v>
+      </c>
+      <c r="I144">
         <v>20293035</v>
       </c>
-      <c r="H144">
+      <c r="J144">
         <v>168</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K144" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>205</v>
+        <v>544</v>
       </c>
       <c r="C145" t="s">
         <v>204</v>
       </c>
-      <c r="F145" t="b">
-        <v>1</v>
-      </c>
-      <c r="G145">
+      <c r="H145" t="s">
+        <v>399</v>
+      </c>
+      <c r="I145">
         <v>20677324</v>
       </c>
-      <c r="H145">
+      <c r="J145">
         <v>160</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K145" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>206</v>
+        <v>545</v>
       </c>
       <c r="C146" t="s">
         <v>207</v>
       </c>
-      <c r="F146" t="b">
-        <v>0</v>
-      </c>
-      <c r="G146">
+      <c r="H146" t="s">
+        <v>400</v>
+      </c>
+      <c r="I146">
         <v>15947722</v>
       </c>
-      <c r="H146">
+      <c r="J146">
         <v>76</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K146" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>208</v>
+        <v>546</v>
       </c>
       <c r="C147" t="s">
         <v>207</v>
       </c>
-      <c r="F147" t="b">
-        <v>1</v>
-      </c>
-      <c r="G147">
+      <c r="H147" t="s">
+        <v>399</v>
+      </c>
+      <c r="I147">
         <v>10570465</v>
       </c>
-      <c r="H147">
+      <c r="J147">
         <v>152</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K147" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>209</v>
+        <v>547</v>
       </c>
       <c r="C148" t="s">
         <v>207</v>
       </c>
-      <c r="F148" t="b">
-        <v>1</v>
-      </c>
-      <c r="G148">
+      <c r="H148" t="s">
+        <v>399</v>
+      </c>
+      <c r="I148">
         <v>16658219</v>
       </c>
-      <c r="H148">
+      <c r="J148">
         <v>152</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K148" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>210</v>
+        <v>548</v>
       </c>
       <c r="C149" t="s">
         <v>211</v>
       </c>
-      <c r="F149" t="b">
-        <v>1</v>
-      </c>
-      <c r="G149">
+      <c r="H149" t="s">
+        <v>399</v>
+      </c>
+      <c r="I149">
         <v>16031881</v>
       </c>
-      <c r="H149">
+      <c r="J149">
         <v>172</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K149" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>212</v>
+        <v>549</v>
       </c>
       <c r="C150" t="s">
         <v>211</v>
       </c>
-      <c r="F150" t="b">
-        <v>1</v>
-      </c>
-      <c r="G150">
+      <c r="H150" t="s">
+        <v>399</v>
+      </c>
+      <c r="I150">
         <v>11328176</v>
       </c>
-      <c r="H150">
+      <c r="J150">
         <v>172</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K150" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>213</v>
+        <v>550</v>
       </c>
       <c r="C151" t="s">
         <v>211</v>
       </c>
-      <c r="F151" t="b">
-        <v>1</v>
-      </c>
-      <c r="G151">
+      <c r="H151" t="s">
+        <v>399</v>
+      </c>
+      <c r="I151">
         <v>26744221</v>
       </c>
-      <c r="H151">
+      <c r="J151">
         <v>152</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K151" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>214</v>
+        <v>551</v>
       </c>
       <c r="C152" t="s">
         <v>215</v>
       </c>
-      <c r="F152" t="b">
-        <v>1</v>
-      </c>
-      <c r="G152">
+      <c r="H152" t="s">
+        <v>399</v>
+      </c>
+      <c r="I152">
         <v>38888888</v>
       </c>
-      <c r="H152">
+      <c r="J152">
         <v>180</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K152" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>216</v>
+        <v>552</v>
       </c>
       <c r="C153" t="s">
         <v>217</v>
       </c>
-      <c r="F153" t="b">
-        <v>1</v>
-      </c>
-      <c r="G153">
+      <c r="H153" t="s">
+        <v>399</v>
+      </c>
+      <c r="I153">
         <v>16592819</v>
       </c>
-      <c r="H153">
+      <c r="J153">
         <v>168</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K153" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>218</v>
+        <v>553</v>
       </c>
       <c r="C154" t="s">
         <v>219</v>
       </c>
-      <c r="F154" t="b">
-        <v>1</v>
-      </c>
-      <c r="G154">
+      <c r="H154" t="s">
+        <v>399</v>
+      </c>
+      <c r="I154">
         <v>28167209</v>
       </c>
-      <c r="H154">
+      <c r="J154">
         <v>200</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K154" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>220</v>
+        <v>554</v>
       </c>
       <c r="C155" t="s">
         <v>219</v>
       </c>
-      <c r="F155" t="b">
-        <v>1</v>
-      </c>
-      <c r="G155">
+      <c r="H155" t="s">
+        <v>399</v>
+      </c>
+      <c r="I155">
         <v>27431855</v>
       </c>
-      <c r="H155">
+      <c r="J155">
         <v>200</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K155" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>221</v>
+        <v>555</v>
       </c>
       <c r="C156" t="s">
         <v>222</v>
       </c>
-      <c r="F156" t="b">
-        <v>1</v>
-      </c>
-      <c r="G156">
+      <c r="H156" t="s">
+        <v>399</v>
+      </c>
+      <c r="I156">
         <v>21131721</v>
       </c>
-      <c r="H156">
+      <c r="J156">
         <v>250</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K156" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>223</v>
+        <v>556</v>
       </c>
       <c r="C157" t="s">
         <v>222</v>
       </c>
-      <c r="F157" t="b">
-        <v>1</v>
-      </c>
-      <c r="G157">
+      <c r="H157" t="s">
+        <v>399</v>
+      </c>
+      <c r="I157">
         <v>16828353</v>
       </c>
-      <c r="H157">
+      <c r="J157">
         <v>168</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K157" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>224</v>
+        <v>557</v>
       </c>
       <c r="C158" t="s">
         <v>225</v>
       </c>
-      <c r="F158" t="b">
-        <v>1</v>
-      </c>
-      <c r="G158">
+      <c r="H158" t="s">
+        <v>399</v>
+      </c>
+      <c r="I158">
         <v>38888888</v>
       </c>
-      <c r="H158">
+      <c r="J158">
         <v>180</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K158" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>226</v>
+        <v>558</v>
       </c>
       <c r="C159" t="s">
         <v>227</v>
       </c>
-      <c r="F159" t="b">
-        <v>1</v>
-      </c>
-      <c r="G159">
+      <c r="H159" t="s">
+        <v>399</v>
+      </c>
+      <c r="I159">
         <v>19760716</v>
       </c>
-      <c r="H159">
+      <c r="J159">
         <v>172</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K159" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>228</v>
+        <v>559</v>
       </c>
       <c r="C160" t="s">
         <v>227</v>
       </c>
-      <c r="F160" t="b">
-        <v>1</v>
-      </c>
-      <c r="G160">
+      <c r="H160" t="s">
+        <v>399</v>
+      </c>
+      <c r="I160">
         <v>16794308</v>
       </c>
-      <c r="H160">
+      <c r="J160">
         <v>168</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K160" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>229</v>
+        <v>560</v>
       </c>
       <c r="C161" t="s">
         <v>230</v>
       </c>
-      <c r="F161" t="b">
-        <v>1</v>
-      </c>
-      <c r="G161">
+      <c r="H161" t="s">
+        <v>399</v>
+      </c>
+      <c r="I161">
         <v>33242977</v>
       </c>
-      <c r="H161">
+      <c r="J161">
         <v>152</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K161" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>231</v>
+        <v>561</v>
       </c>
       <c r="C162" t="s">
         <v>230</v>
       </c>
-      <c r="F162" t="b">
-        <v>1</v>
-      </c>
-      <c r="G162">
+      <c r="H162" t="s">
+        <v>399</v>
+      </c>
+      <c r="I162">
         <v>31426883</v>
       </c>
-      <c r="H162">
+      <c r="J162">
         <v>152</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K162" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>232</v>
+        <v>562</v>
       </c>
       <c r="C163" t="s">
         <v>12</v>
       </c>
-      <c r="F163" t="b">
-        <v>1</v>
-      </c>
-      <c r="G163">
+      <c r="H163" t="s">
+        <v>399</v>
+      </c>
+      <c r="I163">
         <v>10000000</v>
       </c>
-      <c r="H163">
+      <c r="J163">
         <v>132</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K163" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>233</v>
+        <v>563</v>
       </c>
       <c r="C164" t="s">
         <v>12</v>
       </c>
-      <c r="F164" t="b">
-        <v>1</v>
-      </c>
-      <c r="G164">
+      <c r="H164" t="s">
+        <v>399</v>
+      </c>
+      <c r="I164">
         <v>10000000</v>
       </c>
-      <c r="H164">
+      <c r="J164">
         <v>132</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K164" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>234</v>
+        <v>564</v>
       </c>
       <c r="C165" t="s">
         <v>12</v>
       </c>
-      <c r="F165" t="b">
-        <v>1</v>
-      </c>
-      <c r="G165">
+      <c r="H165" t="s">
+        <v>399</v>
+      </c>
+      <c r="I165">
         <v>10000000</v>
       </c>
-      <c r="H165">
+      <c r="J165">
         <v>88</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K165" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>235</v>
+        <v>565</v>
       </c>
       <c r="C166" t="s">
         <v>12</v>
       </c>
-      <c r="F166" t="b">
-        <v>1</v>
-      </c>
-      <c r="G166">
+      <c r="H166" t="s">
+        <v>399</v>
+      </c>
+      <c r="I166">
         <v>10000000</v>
       </c>
-      <c r="H166">
+      <c r="J166">
         <v>94</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K166" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>236</v>
+        <v>566</v>
       </c>
       <c r="C167" t="s">
         <v>12</v>
       </c>
-      <c r="F167" t="b">
-        <v>1</v>
-      </c>
-      <c r="G167">
+      <c r="H167" t="s">
+        <v>399</v>
+      </c>
+      <c r="I167">
         <v>10000000</v>
       </c>
-      <c r="H167">
+      <c r="J167">
         <v>88</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K167" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>237</v>
+        <v>567</v>
       </c>
       <c r="C168" t="s">
         <v>12</v>
       </c>
-      <c r="F168" t="b">
-        <v>1</v>
-      </c>
-      <c r="G168">
+      <c r="H168" t="s">
+        <v>399</v>
+      </c>
+      <c r="I168">
         <v>10000000</v>
       </c>
-      <c r="H168">
+      <c r="J168">
         <v>88</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K168" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>238</v>
+        <v>568</v>
       </c>
       <c r="C169" t="s">
         <v>12</v>
       </c>
-      <c r="F169" t="b">
-        <v>1</v>
-      </c>
-      <c r="G169">
+      <c r="H169" t="s">
+        <v>399</v>
+      </c>
+      <c r="I169">
         <v>10000000</v>
       </c>
-      <c r="H169">
+      <c r="J169">
         <v>88</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K169" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>239</v>
+        <v>569</v>
       </c>
       <c r="C170" t="s">
         <v>12</v>
       </c>
-      <c r="F170" t="b">
-        <v>1</v>
-      </c>
-      <c r="G170">
+      <c r="H170" t="s">
+        <v>399</v>
+      </c>
+      <c r="I170">
         <v>4000698</v>
       </c>
-      <c r="H170">
+      <c r="J170">
         <v>150</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K170" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>240</v>
+        <v>570</v>
       </c>
       <c r="C171" t="s">
         <v>12</v>
       </c>
-      <c r="F171" t="b">
-        <v>1</v>
-      </c>
-      <c r="G171">
+      <c r="H171" t="s">
+        <v>399</v>
+      </c>
+      <c r="I171">
         <v>10000000</v>
       </c>
-      <c r="H171">
+      <c r="J171">
         <v>88</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K171" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>241</v>
+        <v>571</v>
       </c>
       <c r="C172" t="s">
         <v>12</v>
       </c>
-      <c r="F172" t="b">
-        <v>1</v>
-      </c>
-      <c r="G172">
+      <c r="H172" t="s">
+        <v>399</v>
+      </c>
+      <c r="I172">
         <v>10000000</v>
       </c>
-      <c r="H172">
+      <c r="J172">
         <v>88</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K172" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>242</v>
+        <v>572</v>
       </c>
       <c r="C173" t="s">
         <v>243</v>
       </c>
-      <c r="F173" t="b">
-        <v>1</v>
-      </c>
-      <c r="G173">
+      <c r="H173" t="s">
+        <v>399</v>
+      </c>
+      <c r="I173">
         <v>27188161</v>
       </c>
-      <c r="H173">
+      <c r="J173">
         <v>200</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K173" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>244</v>
+        <v>573</v>
       </c>
       <c r="C174" t="s">
         <v>243</v>
       </c>
-      <c r="F174" t="b">
-        <v>1</v>
-      </c>
-      <c r="G174">
+      <c r="H174" t="s">
+        <v>399</v>
+      </c>
+      <c r="I174">
         <v>29603856</v>
       </c>
-      <c r="H174">
+      <c r="J174">
         <v>200</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K174" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>245</v>
+        <v>574</v>
       </c>
       <c r="C175" t="s">
         <v>246</v>
       </c>
-      <c r="F175" t="b">
-        <v>1</v>
-      </c>
-      <c r="G175">
+      <c r="H175" t="s">
+        <v>399</v>
+      </c>
+      <c r="I175">
         <v>38888888</v>
       </c>
-      <c r="H175">
+      <c r="J175">
         <v>180</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K175" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>247</v>
+        <v>575</v>
       </c>
       <c r="C176" t="s">
         <v>248</v>
       </c>
-      <c r="F176" t="b">
-        <v>1</v>
-      </c>
-      <c r="G176">
+      <c r="H176" t="s">
+        <v>399</v>
+      </c>
+      <c r="I176">
         <v>40297059</v>
       </c>
-      <c r="H176">
+      <c r="J176">
         <v>152</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K176" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>249</v>
+        <v>576</v>
       </c>
       <c r="C177" t="s">
         <v>248</v>
       </c>
-      <c r="F177" t="b">
-        <v>1</v>
-      </c>
-      <c r="G177">
+      <c r="H177" t="s">
+        <v>399</v>
+      </c>
+      <c r="I177">
         <v>40810508</v>
       </c>
-      <c r="H177">
+      <c r="J177">
         <v>152</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K177" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>250</v>
+        <v>577</v>
       </c>
       <c r="C178" t="s">
         <v>251</v>
       </c>
-      <c r="F178" t="b">
-        <v>1</v>
-      </c>
-      <c r="G178">
+      <c r="H178" t="s">
+        <v>399</v>
+      </c>
+      <c r="I178">
         <v>38888888</v>
       </c>
-      <c r="H178">
+      <c r="J178">
         <v>180</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K178" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>252</v>
+        <v>578</v>
       </c>
       <c r="C179" t="s">
         <v>253</v>
       </c>
-      <c r="F179" t="b">
-        <v>1</v>
-      </c>
-      <c r="G179">
+      <c r="H179" t="s">
+        <v>399</v>
+      </c>
+      <c r="I179">
         <v>27566263</v>
       </c>
-      <c r="H179">
+      <c r="J179">
         <v>200</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K179" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>254</v>
+        <v>579</v>
       </c>
       <c r="C180" t="s">
         <v>253</v>
       </c>
-      <c r="F180" t="b">
-        <v>1</v>
-      </c>
-      <c r="G180">
+      <c r="H180" t="s">
+        <v>399</v>
+      </c>
+      <c r="I180">
         <v>28544295</v>
       </c>
-      <c r="H180">
+      <c r="J180">
         <v>200</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K180" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>255</v>
+        <v>580</v>
       </c>
       <c r="C181" t="s">
         <v>256</v>
       </c>
-      <c r="F181" t="b">
-        <v>1</v>
-      </c>
-      <c r="G181">
+      <c r="H181" t="s">
+        <v>399</v>
+      </c>
+      <c r="I181">
         <v>16118220</v>
       </c>
-      <c r="H181">
+      <c r="J181">
         <v>172</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K181" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>257</v>
+        <v>581</v>
       </c>
       <c r="C182" t="s">
         <v>256</v>
       </c>
-      <c r="F182" t="b">
-        <v>1</v>
-      </c>
-      <c r="G182">
+      <c r="H182" t="s">
+        <v>399</v>
+      </c>
+      <c r="I182">
         <v>8155370</v>
       </c>
-      <c r="H182">
+      <c r="J182">
         <v>172</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K182" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>258</v>
+        <v>582</v>
       </c>
       <c r="C183" t="s">
         <v>256</v>
       </c>
-      <c r="F183" t="b">
-        <v>1</v>
-      </c>
-      <c r="G183">
+      <c r="H183" t="s">
+        <v>399</v>
+      </c>
+      <c r="I183">
         <v>16249853</v>
       </c>
-      <c r="H183">
+      <c r="J183">
         <v>152</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K183" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>259</v>
+        <v>583</v>
       </c>
       <c r="C184" t="s">
         <v>260</v>
       </c>
-      <c r="F184" t="b">
-        <v>0</v>
-      </c>
-      <c r="G184">
+      <c r="H184" t="s">
+        <v>400</v>
+      </c>
+      <c r="I184">
         <v>18237383</v>
       </c>
-      <c r="H184">
+      <c r="J184">
         <v>76</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K184" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>261</v>
+        <v>584</v>
       </c>
       <c r="C185" t="s">
         <v>260</v>
       </c>
-      <c r="F185" t="b">
-        <v>1</v>
-      </c>
-      <c r="G185">
+      <c r="H185" t="s">
+        <v>399</v>
+      </c>
+      <c r="I185">
         <v>12510351</v>
       </c>
-      <c r="H185">
+      <c r="J185">
         <v>152</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K185" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>262</v>
+        <v>585</v>
       </c>
       <c r="C186" t="s">
         <v>260</v>
       </c>
-      <c r="F186" t="b">
-        <v>1</v>
-      </c>
-      <c r="G186">
+      <c r="H186" t="s">
+        <v>399</v>
+      </c>
+      <c r="I186">
         <v>18650588</v>
       </c>
-      <c r="H186">
+      <c r="J186">
         <v>152</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K186" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>263</v>
+        <v>586</v>
       </c>
       <c r="C187" t="s">
         <v>264</v>
       </c>
-      <c r="F187" t="b">
-        <v>1</v>
-      </c>
-      <c r="G187">
+      <c r="H187" t="s">
+        <v>399</v>
+      </c>
+      <c r="I187">
         <v>26770015</v>
       </c>
-      <c r="H187">
+      <c r="J187">
         <v>200</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K187" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>265</v>
+        <v>587</v>
       </c>
       <c r="C188" t="s">
         <v>264</v>
       </c>
-      <c r="F188" t="b">
-        <v>1</v>
-      </c>
-      <c r="G188">
+      <c r="H188" t="s">
+        <v>399</v>
+      </c>
+      <c r="I188">
         <v>28937399</v>
       </c>
-      <c r="H188">
+      <c r="J188">
         <v>200</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K188" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>266</v>
+        <v>588</v>
       </c>
       <c r="C189" t="s">
         <v>267</v>
       </c>
-      <c r="F189" t="b">
-        <v>1</v>
-      </c>
-      <c r="G189">
+      <c r="H189" t="s">
+        <v>399</v>
+      </c>
+      <c r="I189">
         <v>15254534</v>
       </c>
-      <c r="H189">
+      <c r="J189">
         <v>152</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K189" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>268</v>
+        <v>589</v>
       </c>
       <c r="C190" t="s">
         <v>267</v>
       </c>
-      <c r="F190" t="b">
-        <v>1</v>
-      </c>
-      <c r="G190">
+      <c r="H190" t="s">
+        <v>399</v>
+      </c>
+      <c r="I190">
         <v>19744711</v>
       </c>
-      <c r="H190">
+      <c r="J190">
         <v>152</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K190" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>269</v>
+        <v>590</v>
       </c>
       <c r="C191" t="s">
         <v>267</v>
       </c>
-      <c r="F191" t="b">
-        <v>1</v>
-      </c>
-      <c r="G191">
+      <c r="H191" t="s">
+        <v>399</v>
+      </c>
+      <c r="I191">
         <v>8483329</v>
       </c>
-      <c r="H191">
+      <c r="J191">
         <v>152</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K191" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>270</v>
+        <v>591</v>
       </c>
       <c r="C192" t="s">
         <v>267</v>
       </c>
-      <c r="F192" t="b">
-        <v>1</v>
-      </c>
-      <c r="G192">
+      <c r="H192" t="s">
+        <v>399</v>
+      </c>
+      <c r="I192">
         <v>20104496</v>
       </c>
-      <c r="H192">
+      <c r="J192">
         <v>152</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K192" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>271</v>
+        <v>592</v>
       </c>
       <c r="C193" t="s">
         <v>267</v>
       </c>
-      <c r="F193" t="b">
-        <v>1</v>
-      </c>
-      <c r="G193">
+      <c r="H193" t="s">
+        <v>399</v>
+      </c>
+      <c r="I193">
         <v>11653886</v>
       </c>
-      <c r="H193">
+      <c r="J193">
         <v>152</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K193" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>272</v>
+        <v>593</v>
       </c>
       <c r="C194" t="s">
         <v>267</v>
       </c>
-      <c r="F194" t="b">
-        <v>1</v>
-      </c>
-      <c r="G194">
+      <c r="H194" t="s">
+        <v>399</v>
+      </c>
+      <c r="I194">
         <v>19547778</v>
       </c>
-      <c r="H194">
+      <c r="J194">
         <v>152</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K194" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>273</v>
+        <v>594</v>
       </c>
       <c r="C195" t="s">
         <v>267</v>
       </c>
-      <c r="F195" t="b">
-        <v>1</v>
-      </c>
-      <c r="G195">
+      <c r="H195" t="s">
+        <v>399</v>
+      </c>
+      <c r="I195">
         <v>11888024</v>
       </c>
-      <c r="H195">
+      <c r="J195">
         <v>152</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K195" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>274</v>
+        <v>595</v>
       </c>
       <c r="C196" t="s">
         <v>267</v>
       </c>
-      <c r="F196" t="b">
-        <v>1</v>
-      </c>
-      <c r="G196">
+      <c r="H196" t="s">
+        <v>399</v>
+      </c>
+      <c r="I196">
         <v>13354696</v>
       </c>
-      <c r="H196">
+      <c r="J196">
         <v>152</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K196" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>275</v>
+        <v>596</v>
       </c>
       <c r="C197" t="s">
         <v>267</v>
       </c>
-      <c r="F197" t="b">
-        <v>1</v>
-      </c>
-      <c r="G197">
+      <c r="H197" t="s">
+        <v>399</v>
+      </c>
+      <c r="I197">
         <v>19848675</v>
       </c>
-      <c r="H197">
+      <c r="J197">
         <v>152</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K197" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>276</v>
+        <v>597</v>
       </c>
       <c r="C198" t="s">
         <v>267</v>
       </c>
-      <c r="F198" t="b">
-        <v>1</v>
-      </c>
-      <c r="G198">
+      <c r="H198" t="s">
+        <v>399</v>
+      </c>
+      <c r="I198">
         <v>19859578</v>
       </c>
-      <c r="H198">
+      <c r="J198">
         <v>152</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K198" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>277</v>
+        <v>598</v>
       </c>
       <c r="C199" t="s">
         <v>267</v>
       </c>
-      <c r="F199" t="b">
-        <v>1</v>
-      </c>
-      <c r="G199">
+      <c r="H199" t="s">
+        <v>399</v>
+      </c>
+      <c r="I199">
         <v>20223822</v>
       </c>
-      <c r="H199">
+      <c r="J199">
         <v>152</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K199" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>278</v>
+        <v>599</v>
       </c>
       <c r="C200" t="s">
         <v>267</v>
       </c>
-      <c r="F200" t="b">
-        <v>1</v>
-      </c>
-      <c r="G200">
+      <c r="H200" t="s">
+        <v>399</v>
+      </c>
+      <c r="I200">
         <v>12943133</v>
       </c>
-      <c r="H200">
+      <c r="J200">
         <v>152</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K200" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>279</v>
+        <v>600</v>
       </c>
       <c r="C201" t="s">
         <v>267</v>
       </c>
-      <c r="F201" t="b">
-        <v>1</v>
-      </c>
-      <c r="G201">
+      <c r="H201" t="s">
+        <v>399</v>
+      </c>
+      <c r="I201">
         <v>19756105</v>
       </c>
-      <c r="H201">
+      <c r="J201">
         <v>152</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K201" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>280</v>
+        <v>601</v>
       </c>
       <c r="C202" t="s">
         <v>267</v>
       </c>
-      <c r="F202" t="b">
-        <v>0</v>
-      </c>
-      <c r="G202">
+      <c r="H202" t="s">
+        <v>400</v>
+      </c>
+      <c r="I202">
         <v>18256497</v>
       </c>
-      <c r="H202">
+      <c r="J202">
         <v>76</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K202" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>281</v>
+        <v>602</v>
       </c>
       <c r="C203" t="s">
         <v>267</v>
       </c>
-      <c r="F203" t="b">
-        <v>1</v>
-      </c>
-      <c r="G203">
+      <c r="H203" t="s">
+        <v>399</v>
+      </c>
+      <c r="I203">
         <v>15395801</v>
       </c>
-      <c r="H203">
+      <c r="J203">
         <v>152</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K203" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>282</v>
+        <v>603</v>
       </c>
       <c r="C204" t="s">
         <v>267</v>
       </c>
-      <c r="F204" t="b">
-        <v>1</v>
-      </c>
-      <c r="G204">
+      <c r="H204" t="s">
+        <v>399</v>
+      </c>
+      <c r="I204">
         <v>19214329</v>
       </c>
-      <c r="H204">
+      <c r="J204">
         <v>152</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K204" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>283</v>
+        <v>604</v>
       </c>
       <c r="C205" t="s">
         <v>267</v>
       </c>
-      <c r="F205" t="b">
-        <v>1</v>
-      </c>
-      <c r="G205">
+      <c r="H205" t="s">
+        <v>399</v>
+      </c>
+      <c r="I205">
         <v>13937175</v>
       </c>
-      <c r="H205">
+      <c r="J205">
         <v>152</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K205" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>284</v>
+        <v>605</v>
       </c>
       <c r="C206" t="s">
         <v>285</v>
       </c>
-      <c r="F206" t="b">
-        <v>1</v>
-      </c>
-      <c r="G206">
+      <c r="H206" t="s">
+        <v>399</v>
+      </c>
+      <c r="I206">
         <v>38888888</v>
       </c>
-      <c r="H206">
+      <c r="J206">
         <v>180</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K206" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>286</v>
+        <v>606</v>
       </c>
       <c r="C207" t="s">
         <v>287</v>
       </c>
-      <c r="F207" t="b">
-        <v>1</v>
-      </c>
-      <c r="G207">
+      <c r="H207" t="s">
+        <v>399</v>
+      </c>
+      <c r="I207">
         <v>23074029</v>
       </c>
-      <c r="H207">
+      <c r="J207">
         <v>152</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K207" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>288</v>
+        <v>607</v>
       </c>
       <c r="C208" t="s">
         <v>287</v>
       </c>
-      <c r="F208" t="b">
-        <v>1</v>
-      </c>
-      <c r="G208">
+      <c r="H208" t="s">
+        <v>399</v>
+      </c>
+      <c r="I208">
         <v>18172047</v>
       </c>
-      <c r="H208">
+      <c r="J208">
         <v>168</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K208" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>289</v>
+        <v>608</v>
       </c>
       <c r="C209" t="s">
         <v>287</v>
       </c>
-      <c r="F209" t="b">
-        <v>1</v>
-      </c>
-      <c r="G209">
+      <c r="H209" t="s">
+        <v>399</v>
+      </c>
+      <c r="I209">
         <v>26582552</v>
       </c>
-      <c r="H209">
+      <c r="J209">
         <v>152</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K209" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>290</v>
+        <v>609</v>
       </c>
       <c r="C210" t="s">
         <v>291</v>
       </c>
-      <c r="F210" t="b">
-        <v>1</v>
-      </c>
-      <c r="G210">
+      <c r="H210" t="s">
+        <v>399</v>
+      </c>
+      <c r="I210">
         <v>27685587</v>
       </c>
-      <c r="H210">
+      <c r="J210">
         <v>152</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K210" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>292</v>
+        <v>610</v>
       </c>
       <c r="C211" t="s">
         <v>291</v>
       </c>
-      <c r="F211" t="b">
-        <v>1</v>
-      </c>
-      <c r="G211">
+      <c r="H211" t="s">
+        <v>399</v>
+      </c>
+      <c r="I211">
         <v>27997447</v>
       </c>
-      <c r="H211">
+      <c r="J211">
         <v>152</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K211" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>293</v>
+        <v>611</v>
       </c>
       <c r="C212" t="s">
         <v>294</v>
       </c>
-      <c r="F212" t="b">
-        <v>1</v>
-      </c>
-      <c r="G212">
+      <c r="H212" t="s">
+        <v>399</v>
+      </c>
+      <c r="I212">
         <v>28736198</v>
       </c>
-      <c r="H212">
+      <c r="J212">
         <v>200</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K212" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>295</v>
+        <v>612</v>
       </c>
       <c r="C213" t="s">
         <v>294</v>
       </c>
-      <c r="F213" t="b">
-        <v>1</v>
-      </c>
-      <c r="G213">
+      <c r="H213" t="s">
+        <v>399</v>
+      </c>
+      <c r="I213">
         <v>25482002</v>
       </c>
-      <c r="H213">
+      <c r="J213">
         <v>200</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K213" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>296</v>
+        <v>613</v>
       </c>
       <c r="C214" t="s">
         <v>297</v>
       </c>
-      <c r="F214" t="b">
-        <v>1</v>
-      </c>
-      <c r="G214">
+      <c r="H214" t="s">
+        <v>399</v>
+      </c>
+      <c r="I214">
         <v>28580949</v>
       </c>
-      <c r="H214">
+      <c r="J214">
         <v>200</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K214" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>298</v>
+        <v>614</v>
       </c>
       <c r="C215" t="s">
         <v>297</v>
       </c>
-      <c r="F215" t="b">
-        <v>1</v>
-      </c>
-      <c r="G215">
+      <c r="H215" t="s">
+        <v>399</v>
+      </c>
+      <c r="I215">
         <v>27972811</v>
       </c>
-      <c r="H215">
+      <c r="J215">
         <v>200</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K215" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>299</v>
+        <v>615</v>
       </c>
       <c r="C216" t="s">
         <v>300</v>
       </c>
-      <c r="F216" t="b">
-        <v>1</v>
-      </c>
-      <c r="G216">
+      <c r="H216" t="s">
+        <v>399</v>
+      </c>
+      <c r="I216">
         <v>41613214</v>
       </c>
-      <c r="H216">
+      <c r="J216">
         <v>152</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K216" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>301</v>
+        <v>616</v>
       </c>
       <c r="C217" t="s">
         <v>300</v>
       </c>
-      <c r="F217" t="b">
-        <v>1</v>
-      </c>
-      <c r="G217">
+      <c r="H217" t="s">
+        <v>399</v>
+      </c>
+      <c r="I217">
         <v>18552317</v>
       </c>
-      <c r="H217">
+      <c r="J217">
         <v>168</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K217" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>302</v>
+        <v>617</v>
       </c>
       <c r="C218" t="s">
         <v>303</v>
       </c>
-      <c r="F218" t="b">
-        <v>1</v>
-      </c>
-      <c r="G218">
+      <c r="H218" t="s">
+        <v>399</v>
+      </c>
+      <c r="I218">
         <v>16968726</v>
       </c>
-      <c r="H218">
+      <c r="J218">
         <v>168</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K218" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>304</v>
+        <v>618</v>
       </c>
       <c r="C219" t="s">
         <v>303</v>
       </c>
-      <c r="F219" t="b">
-        <v>1</v>
-      </c>
-      <c r="G219">
+      <c r="H219" t="s">
+        <v>399</v>
+      </c>
+      <c r="I219">
         <v>21335706</v>
       </c>
-      <c r="H219">
+      <c r="J219">
         <v>250</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K219" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>305</v>
+        <v>619</v>
       </c>
       <c r="C220" t="s">
         <v>303</v>
       </c>
-      <c r="F220" t="b">
-        <v>1</v>
-      </c>
-      <c r="G220">
+      <c r="H220" t="s">
+        <v>399</v>
+      </c>
+      <c r="I220">
         <v>17777348</v>
       </c>
-      <c r="H220">
+      <c r="J220">
         <v>168</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K220" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>306</v>
+        <v>620</v>
       </c>
       <c r="C221" t="s">
         <v>307</v>
       </c>
-      <c r="F221" t="b">
-        <v>1</v>
-      </c>
-      <c r="G221">
+      <c r="H221" t="s">
+        <v>399</v>
+      </c>
+      <c r="I221">
         <v>38888888</v>
       </c>
-      <c r="H221">
+      <c r="J221">
         <v>180</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K221" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>308</v>
+        <v>621</v>
       </c>
       <c r="C222" t="s">
         <v>309</v>
       </c>
-      <c r="F222" t="b">
-        <v>1</v>
-      </c>
-      <c r="G222">
+      <c r="H222" t="s">
+        <v>399</v>
+      </c>
+      <c r="I222">
         <v>30262312</v>
       </c>
-      <c r="H222">
+      <c r="J222">
         <v>200</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K222" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>310</v>
+        <v>622</v>
       </c>
       <c r="C223" t="s">
         <v>309</v>
       </c>
-      <c r="F223" t="b">
-        <v>1</v>
-      </c>
-      <c r="G223">
+      <c r="H223" t="s">
+        <v>399</v>
+      </c>
+      <c r="I223">
         <v>27741762</v>
       </c>
-      <c r="H223">
+      <c r="J223">
         <v>200</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K223" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>311</v>
+        <v>623</v>
       </c>
       <c r="C224" t="s">
         <v>312</v>
       </c>
-      <c r="F224" t="b">
-        <v>1</v>
-      </c>
-      <c r="G224">
+      <c r="H224" t="s">
+        <v>399</v>
+      </c>
+      <c r="I224">
         <v>17173420</v>
       </c>
-      <c r="H224">
+      <c r="J224">
         <v>152</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K224" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>313</v>
+        <v>624</v>
       </c>
       <c r="C225" t="s">
         <v>312</v>
       </c>
-      <c r="F225" t="b">
-        <v>1</v>
-      </c>
-      <c r="G225">
+      <c r="H225" t="s">
+        <v>399</v>
+      </c>
+      <c r="I225">
         <v>17947696</v>
       </c>
-      <c r="H225">
+      <c r="J225">
         <v>172</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K225" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>314</v>
+        <v>625</v>
       </c>
       <c r="C226" t="s">
         <v>312</v>
       </c>
-      <c r="F226" t="b">
-        <v>1</v>
-      </c>
-      <c r="G226">
+      <c r="H226" t="s">
+        <v>399</v>
+      </c>
+      <c r="I226">
         <v>4051823</v>
       </c>
-      <c r="H226">
+      <c r="J226">
         <v>172</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K226" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>315</v>
+        <v>626</v>
       </c>
       <c r="C227" t="s">
         <v>316</v>
       </c>
-      <c r="F227" t="b">
-        <v>1</v>
-      </c>
-      <c r="G227">
+      <c r="H227" t="s">
+        <v>399</v>
+      </c>
+      <c r="I227">
         <v>29916891</v>
       </c>
-      <c r="H227">
+      <c r="J227">
         <v>200</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K227" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>317</v>
+        <v>627</v>
       </c>
       <c r="C228" t="s">
         <v>316</v>
       </c>
-      <c r="F228" t="b">
-        <v>1</v>
-      </c>
-      <c r="G228">
+      <c r="H228" t="s">
+        <v>399</v>
+      </c>
+      <c r="I228">
         <v>27567832</v>
       </c>
-      <c r="H228">
+      <c r="J228">
         <v>200</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K228" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>318</v>
+        <v>628</v>
       </c>
       <c r="C229" t="s">
         <v>319</v>
       </c>
-      <c r="F229" t="b">
-        <v>1</v>
-      </c>
-      <c r="G229">
+      <c r="H229" t="s">
+        <v>399</v>
+      </c>
+      <c r="I229">
         <v>33044018</v>
       </c>
-      <c r="H229">
+      <c r="J229">
         <v>200</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K229" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>320</v>
+        <v>629</v>
       </c>
       <c r="C230" t="s">
         <v>319</v>
       </c>
-      <c r="F230" t="b">
-        <v>1</v>
-      </c>
-      <c r="G230">
+      <c r="H230" t="s">
+        <v>399</v>
+      </c>
+      <c r="I230">
         <v>32426186</v>
       </c>
-      <c r="H230">
+      <c r="J230">
         <v>200</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K230" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>321</v>
+        <v>630</v>
       </c>
       <c r="C231" t="s">
         <v>319</v>
       </c>
-      <c r="F231" t="b">
-        <v>1</v>
-      </c>
-      <c r="G231">
+      <c r="H231" t="s">
+        <v>399</v>
+      </c>
+      <c r="I231">
         <v>33902387</v>
       </c>
-      <c r="H231">
+      <c r="J231">
         <v>200</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K231" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>322</v>
+        <v>631</v>
       </c>
       <c r="C232" t="s">
         <v>319</v>
       </c>
-      <c r="F232" t="b">
-        <v>1</v>
-      </c>
-      <c r="G232">
+      <c r="H232" t="s">
+        <v>399</v>
+      </c>
+      <c r="I232">
         <v>30627096</v>
       </c>
-      <c r="H232">
+      <c r="J232">
         <v>200</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K232" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>323</v>
+        <v>632</v>
       </c>
       <c r="C233" t="s">
         <v>324</v>
       </c>
-      <c r="F233" t="b">
-        <v>1</v>
-      </c>
-      <c r="G233">
+      <c r="H233" t="s">
+        <v>399</v>
+      </c>
+      <c r="I233">
         <v>25075037</v>
       </c>
-      <c r="H233">
+      <c r="J233">
         <v>200</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K233" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>325</v>
+        <v>633</v>
       </c>
       <c r="C234" t="s">
         <v>324</v>
       </c>
-      <c r="F234" t="b">
-        <v>1</v>
-      </c>
-      <c r="G234">
+      <c r="H234" t="s">
+        <v>399</v>
+      </c>
+      <c r="I234">
         <v>27968849</v>
       </c>
-      <c r="H234">
+      <c r="J234">
         <v>200</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K234" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>326</v>
+        <v>634</v>
       </c>
       <c r="C235" t="s">
         <v>327</v>
       </c>
-      <c r="F235" t="b">
-        <v>1</v>
-      </c>
-      <c r="G235">
+      <c r="H235" t="s">
+        <v>399</v>
+      </c>
+      <c r="I235">
         <v>38888888</v>
       </c>
-      <c r="H235">
+      <c r="J235">
         <v>180</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K235" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>328</v>
+        <v>635</v>
       </c>
       <c r="C236" t="s">
         <v>329</v>
       </c>
-      <c r="F236" t="b">
-        <v>1</v>
-      </c>
-      <c r="G236">
+      <c r="H236" t="s">
+        <v>399</v>
+      </c>
+      <c r="I236">
         <v>17318371</v>
       </c>
-      <c r="H236">
+      <c r="J236">
         <v>168</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K236" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>330</v>
+        <v>636</v>
       </c>
       <c r="C237" t="s">
         <v>329</v>
       </c>
-      <c r="F237" t="b">
-        <v>1</v>
-      </c>
-      <c r="G237">
+      <c r="H237" t="s">
+        <v>399</v>
+      </c>
+      <c r="I237">
         <v>31424987</v>
       </c>
-      <c r="H237">
+      <c r="J237">
         <v>152</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K237" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>331</v>
+        <v>637</v>
       </c>
       <c r="C238" t="s">
         <v>332</v>
       </c>
-      <c r="F238" t="b">
-        <v>1</v>
-      </c>
-      <c r="G238">
+      <c r="H238" t="s">
+        <v>399</v>
+      </c>
+      <c r="I238">
         <v>15576250</v>
       </c>
-      <c r="H238">
+      <c r="J238">
         <v>172</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K238" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>333</v>
+        <v>638</v>
       </c>
       <c r="C239" t="s">
         <v>332</v>
       </c>
-      <c r="F239" t="b">
-        <v>1</v>
-      </c>
-      <c r="G239">
+      <c r="H239" t="s">
+        <v>399</v>
+      </c>
+      <c r="I239">
         <v>12167875</v>
       </c>
-      <c r="H239">
+      <c r="J239">
         <v>172</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K239" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>334</v>
+        <v>639</v>
       </c>
       <c r="C240" t="s">
         <v>335</v>
       </c>
-      <c r="F240" t="b">
-        <v>1</v>
-      </c>
-      <c r="G240">
+      <c r="H240" t="s">
+        <v>399</v>
+      </c>
+      <c r="I240">
         <v>18530880</v>
       </c>
-      <c r="H240">
+      <c r="J240">
         <v>152</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K240" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>336</v>
+        <v>640</v>
       </c>
       <c r="C241" t="s">
         <v>335</v>
       </c>
-      <c r="F241" t="b">
-        <v>1</v>
-      </c>
-      <c r="G241">
+      <c r="H241" t="s">
+        <v>399</v>
+      </c>
+      <c r="I241">
         <v>18542260</v>
       </c>
-      <c r="H241">
+      <c r="J241">
         <v>152</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K241" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>337</v>
+        <v>641</v>
       </c>
       <c r="C242" t="s">
         <v>335</v>
       </c>
-      <c r="F242" t="b">
-        <v>1</v>
-      </c>
-      <c r="G242">
+      <c r="H242" t="s">
+        <v>399</v>
+      </c>
+      <c r="I242">
         <v>18453715</v>
       </c>
-      <c r="H242">
+      <c r="J242">
         <v>152</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K242" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>338</v>
+        <v>642</v>
       </c>
       <c r="C243" t="s">
         <v>335</v>
       </c>
-      <c r="F243" t="b">
-        <v>1</v>
-      </c>
-      <c r="G243">
+      <c r="H243" t="s">
+        <v>399</v>
+      </c>
+      <c r="I243">
         <v>18627779</v>
       </c>
-      <c r="H243">
+      <c r="J243">
         <v>152</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K243" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>339</v>
+        <v>643</v>
       </c>
       <c r="C244" t="s">
         <v>335</v>
       </c>
-      <c r="F244" t="b">
-        <v>1</v>
-      </c>
-      <c r="G244">
+      <c r="H244" t="s">
+        <v>399</v>
+      </c>
+      <c r="I244">
         <v>18658412</v>
       </c>
-      <c r="H244">
+      <c r="J244">
         <v>152</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K244" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>340</v>
+        <v>644</v>
       </c>
       <c r="C245" t="s">
         <v>335</v>
       </c>
-      <c r="F245" t="b">
-        <v>1</v>
-      </c>
-      <c r="G245">
+      <c r="H245" t="s">
+        <v>399</v>
+      </c>
+      <c r="I245">
         <v>18324852</v>
       </c>
-      <c r="H245">
+      <c r="J245">
         <v>152</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K245" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>341</v>
+        <v>645</v>
       </c>
       <c r="C246" t="s">
         <v>335</v>
       </c>
-      <c r="F246" t="b">
-        <v>1</v>
-      </c>
-      <c r="G246">
+      <c r="H246" t="s">
+        <v>399</v>
+      </c>
+      <c r="I246">
         <v>18572398</v>
       </c>
-      <c r="H246">
+      <c r="J246">
         <v>152</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K246" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>342</v>
+        <v>646</v>
       </c>
       <c r="C247" t="s">
         <v>335</v>
       </c>
-      <c r="F247" t="b">
-        <v>1</v>
-      </c>
-      <c r="G247">
+      <c r="H247" t="s">
+        <v>399</v>
+      </c>
+      <c r="I247">
         <v>18834211</v>
       </c>
-      <c r="H247">
+      <c r="J247">
         <v>152</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K247" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>343</v>
+        <v>647</v>
       </c>
       <c r="C248" t="s">
         <v>335</v>
       </c>
-      <c r="F248" t="b">
-        <v>1</v>
-      </c>
-      <c r="G248">
+      <c r="H248" t="s">
+        <v>399</v>
+      </c>
+      <c r="I248">
         <v>18382368</v>
       </c>
-      <c r="H248">
+      <c r="J248">
         <v>152</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K248" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>344</v>
+        <v>648</v>
       </c>
       <c r="C249" t="s">
         <v>335</v>
       </c>
-      <c r="F249" t="b">
-        <v>1</v>
-      </c>
-      <c r="G249">
+      <c r="H249" t="s">
+        <v>399</v>
+      </c>
+      <c r="I249">
         <v>18072011</v>
       </c>
-      <c r="H249">
+      <c r="J249">
         <v>152</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K249" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>345</v>
+        <v>649</v>
       </c>
       <c r="C250" t="s">
         <v>335</v>
       </c>
-      <c r="F250" t="b">
-        <v>1</v>
-      </c>
-      <c r="G250">
+      <c r="H250" t="s">
+        <v>399</v>
+      </c>
+      <c r="I250">
         <v>18476804</v>
       </c>
-      <c r="H250">
+      <c r="J250">
         <v>152</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K250" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>346</v>
+        <v>650</v>
       </c>
       <c r="C251" t="s">
         <v>335</v>
       </c>
-      <c r="F251" t="b">
-        <v>1</v>
-      </c>
-      <c r="G251">
+      <c r="H251" t="s">
+        <v>399</v>
+      </c>
+      <c r="I251">
         <v>18629913</v>
       </c>
-      <c r="H251">
+      <c r="J251">
         <v>152</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K251" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>347</v>
+        <v>651</v>
       </c>
       <c r="C252" t="s">
         <v>335</v>
       </c>
-      <c r="F252" t="b">
-        <v>1</v>
-      </c>
-      <c r="G252">
+      <c r="H252" t="s">
+        <v>399</v>
+      </c>
+      <c r="I252">
         <v>17846948</v>
       </c>
-      <c r="H252">
+      <c r="J252">
         <v>152</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K252" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>348</v>
+        <v>652</v>
       </c>
       <c r="C253" t="s">
         <v>335</v>
       </c>
-      <c r="F253" t="b">
-        <v>1</v>
-      </c>
-      <c r="G253">
+      <c r="H253" t="s">
+        <v>399</v>
+      </c>
+      <c r="I253">
         <v>18359141</v>
       </c>
-      <c r="H253">
+      <c r="J253">
         <v>152</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K253" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>349</v>
+        <v>653</v>
       </c>
       <c r="C254" t="s">
         <v>350</v>
       </c>
-      <c r="F254" t="b">
-        <v>1</v>
-      </c>
-      <c r="G254">
+      <c r="H254" t="s">
+        <v>399</v>
+      </c>
+      <c r="I254">
         <v>15413371</v>
       </c>
-      <c r="H254">
+      <c r="J254">
         <v>168</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K254" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>351</v>
+        <v>654</v>
       </c>
       <c r="C255" t="s">
         <v>350</v>
       </c>
-      <c r="F255" t="b">
-        <v>1</v>
-      </c>
-      <c r="G255">
+      <c r="H255" t="s">
+        <v>399</v>
+      </c>
+      <c r="I255">
         <v>17292066</v>
       </c>
-      <c r="H255">
+      <c r="J255">
         <v>160</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K255" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>352</v>
+        <v>655</v>
       </c>
       <c r="C256" t="s">
         <v>350</v>
       </c>
-      <c r="F256" t="b">
-        <v>1</v>
-      </c>
-      <c r="G256">
+      <c r="H256" t="s">
+        <v>399</v>
+      </c>
+      <c r="I256">
         <v>17884489</v>
       </c>
-      <c r="H256">
+      <c r="J256">
         <v>168</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K256" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>353</v>
+        <v>656</v>
       </c>
       <c r="C257" t="s">
         <v>26</v>
       </c>
-      <c r="F257" t="b">
-        <v>1</v>
-      </c>
-      <c r="G257">
+      <c r="H257" t="s">
+        <v>399</v>
+      </c>
+      <c r="I257">
         <v>10000000</v>
       </c>
-      <c r="H257">
+      <c r="J257">
         <v>150</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K257" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>354</v>
+        <v>657</v>
       </c>
       <c r="C258" t="s">
         <v>26</v>
       </c>
-      <c r="F258" t="b">
-        <v>1</v>
-      </c>
-      <c r="G258">
+      <c r="H258" t="s">
+        <v>399</v>
+      </c>
+      <c r="I258">
         <v>5585290</v>
       </c>
-      <c r="H258">
+      <c r="J258">
         <v>150</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K258" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>355</v>
+        <v>658</v>
       </c>
       <c r="C259" t="s">
         <v>26</v>
       </c>
-      <c r="F259" t="b">
-        <v>1</v>
-      </c>
-      <c r="G259">
+      <c r="H259" t="s">
+        <v>399</v>
+      </c>
+      <c r="I259">
         <v>10000000</v>
       </c>
-      <c r="H259">
+      <c r="J259">
         <v>88</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K259" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>356</v>
+        <v>659</v>
       </c>
       <c r="C260" t="s">
         <v>26</v>
       </c>
-      <c r="F260" t="b">
-        <v>1</v>
-      </c>
-      <c r="G260">
+      <c r="H260" t="s">
+        <v>399</v>
+      </c>
+      <c r="I260">
         <v>10000000</v>
       </c>
-      <c r="H260">
+      <c r="J260">
         <v>150</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K260" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>357</v>
+        <v>660</v>
       </c>
       <c r="C261" t="s">
         <v>26</v>
       </c>
-      <c r="F261" t="b">
-        <v>1</v>
-      </c>
-      <c r="G261">
+      <c r="H261" t="s">
+        <v>399</v>
+      </c>
+      <c r="I261">
         <v>10000000</v>
       </c>
-      <c r="H261">
+      <c r="J261">
         <v>150</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K261" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>358</v>
+        <v>661</v>
       </c>
       <c r="C262" t="s">
         <v>26</v>
       </c>
-      <c r="F262" t="b">
-        <v>1</v>
-      </c>
-      <c r="G262">
+      <c r="H262" t="s">
+        <v>399</v>
+      </c>
+      <c r="I262">
         <v>10000000</v>
       </c>
-      <c r="H262">
+      <c r="J262">
         <v>150</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K262" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>359</v>
+        <v>662</v>
       </c>
       <c r="C263" t="s">
         <v>26</v>
       </c>
-      <c r="F263" t="b">
-        <v>1</v>
-      </c>
-      <c r="G263">
+      <c r="H263" t="s">
+        <v>399</v>
+      </c>
+      <c r="I263">
         <v>2297389</v>
       </c>
-      <c r="H263">
+      <c r="J263">
         <v>150</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K263" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>360</v>
+        <v>663</v>
       </c>
       <c r="C264" t="s">
         <v>26</v>
       </c>
-      <c r="F264" t="b">
-        <v>1</v>
-      </c>
-      <c r="G264">
+      <c r="H264" t="s">
+        <v>399</v>
+      </c>
+      <c r="I264">
         <v>10000000</v>
       </c>
-      <c r="H264">
+      <c r="J264">
         <v>150</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K264" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>361</v>
+        <v>664</v>
       </c>
       <c r="C265" t="s">
         <v>26</v>
       </c>
-      <c r="F265" t="b">
-        <v>1</v>
-      </c>
-      <c r="G265">
+      <c r="H265" t="s">
+        <v>399</v>
+      </c>
+      <c r="I265">
         <v>10000000</v>
       </c>
-      <c r="H265">
+      <c r="J265">
         <v>150</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K265" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>362</v>
+        <v>665</v>
       </c>
       <c r="C266" t="s">
         <v>363</v>
       </c>
-      <c r="F266" t="b">
-        <v>1</v>
-      </c>
-      <c r="G266">
+      <c r="H266" t="s">
+        <v>399</v>
+      </c>
+      <c r="I266">
         <v>29121915</v>
       </c>
-      <c r="H266">
+      <c r="J266">
         <v>200</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K266" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>364</v>
+        <v>666</v>
       </c>
       <c r="C267" t="s">
         <v>363</v>
       </c>
-      <c r="F267" t="b">
-        <v>1</v>
-      </c>
-      <c r="G267">
+      <c r="H267" t="s">
+        <v>399</v>
+      </c>
+      <c r="I267">
         <v>28808759</v>
       </c>
-      <c r="H267">
+      <c r="J267">
         <v>200</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K267" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>365</v>
+        <v>667</v>
       </c>
       <c r="C268" t="s">
         <v>366</v>
       </c>
-      <c r="F268" t="b">
-        <v>1</v>
-      </c>
-      <c r="G268">
+      <c r="H268" t="s">
+        <v>399</v>
+      </c>
+      <c r="I268">
         <v>16703592</v>
       </c>
-      <c r="H268">
+      <c r="J268">
         <v>172</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K268" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>367</v>
+        <v>668</v>
       </c>
       <c r="C269" t="s">
         <v>366</v>
       </c>
-      <c r="F269" t="b">
-        <v>1</v>
-      </c>
-      <c r="G269">
+      <c r="H269" t="s">
+        <v>399</v>
+      </c>
+      <c r="I269">
         <v>12016019</v>
       </c>
-      <c r="H269">
+      <c r="J269">
         <v>172</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K269" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>368</v>
+        <v>669</v>
       </c>
       <c r="C270" t="s">
         <v>369</v>
       </c>
-      <c r="F270" t="b">
-        <v>1</v>
-      </c>
-      <c r="G270">
+      <c r="H270" t="s">
+        <v>399</v>
+      </c>
+      <c r="I270">
         <v>38888888</v>
       </c>
-      <c r="H270">
+      <c r="J270">
         <v>180</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K270" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>370</v>
+        <v>670</v>
       </c>
       <c r="C271" t="s">
         <v>371</v>
       </c>
-      <c r="F271" t="b">
-        <v>1</v>
-      </c>
-      <c r="G271">
+      <c r="H271" t="s">
+        <v>399</v>
+      </c>
+      <c r="I271">
         <v>38888888</v>
       </c>
-      <c r="H271">
+      <c r="J271">
         <v>180</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K271" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>372</v>
+        <v>671</v>
       </c>
       <c r="C272" t="s">
         <v>373</v>
       </c>
-      <c r="F272" t="b">
-        <v>1</v>
-      </c>
-      <c r="G272">
+      <c r="H272" t="s">
+        <v>399</v>
+      </c>
+      <c r="I272">
         <v>38888888</v>
       </c>
-      <c r="H272">
+      <c r="J272">
         <v>180</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K272" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>374</v>
+        <v>672</v>
       </c>
       <c r="C273" t="s">
         <v>375</v>
       </c>
-      <c r="F273" t="b">
-        <v>1</v>
-      </c>
-      <c r="G273">
+      <c r="H273" t="s">
+        <v>399</v>
+      </c>
+      <c r="I273">
         <v>38888888</v>
       </c>
-      <c r="H273">
+      <c r="J273">
         <v>180</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K273" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>376</v>
+        <v>673</v>
       </c>
       <c r="C274" t="s">
         <v>377</v>
       </c>
-      <c r="F274" t="b">
-        <v>1</v>
-      </c>
-      <c r="G274">
+      <c r="H274" t="s">
+        <v>399</v>
+      </c>
+      <c r="I274">
         <v>28871665</v>
       </c>
-      <c r="H274">
+      <c r="J274">
         <v>200</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K274" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>378</v>
+        <v>674</v>
       </c>
       <c r="C275" t="s">
         <v>377</v>
       </c>
-      <c r="F275" t="b">
-        <v>1</v>
-      </c>
-      <c r="G275">
+      <c r="H275" t="s">
+        <v>399</v>
+      </c>
+      <c r="I275">
         <v>29689720</v>
       </c>
-      <c r="H275">
+      <c r="J275">
         <v>200</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K275" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>379</v>
+        <v>675</v>
       </c>
       <c r="C276" t="s">
         <v>380</v>
       </c>
-      <c r="F276" t="b">
-        <v>1</v>
-      </c>
-      <c r="G276">
+      <c r="H276" t="s">
+        <v>399</v>
+      </c>
+      <c r="I276">
         <v>38888888</v>
       </c>
-      <c r="H276">
+      <c r="J276">
         <v>180</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K276" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>381</v>
+        <v>676</v>
       </c>
       <c r="C277" t="s">
         <v>382</v>
       </c>
-      <c r="F277" t="b">
-        <v>1</v>
-      </c>
-      <c r="G277">
+      <c r="H277" t="s">
+        <v>399</v>
+      </c>
+      <c r="I277">
         <v>24458673</v>
       </c>
-      <c r="H277">
+      <c r="J277">
         <v>152</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K277" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>383</v>
+        <v>677</v>
       </c>
       <c r="C278" t="s">
         <v>382</v>
       </c>
-      <c r="F278" t="b">
-        <v>1</v>
-      </c>
-      <c r="G278">
+      <c r="H278" t="s">
+        <v>399</v>
+      </c>
+      <c r="I278">
         <v>20289814</v>
       </c>
-      <c r="H278">
+      <c r="J278">
         <v>168</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K278" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>384</v>
+        <v>678</v>
       </c>
       <c r="C279" t="s">
         <v>382</v>
       </c>
-      <c r="F279" t="b">
-        <v>1</v>
-      </c>
-      <c r="G279">
+      <c r="H279" t="s">
+        <v>399</v>
+      </c>
+      <c r="I279">
         <v>30971631</v>
       </c>
-      <c r="H279">
+      <c r="J279">
         <v>152</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K279" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>385</v>
+        <v>679</v>
       </c>
       <c r="C280" t="s">
         <v>386</v>
       </c>
-      <c r="F280" t="b">
-        <v>1</v>
-      </c>
-      <c r="G280">
+      <c r="H280" t="s">
+        <v>399</v>
+      </c>
+      <c r="I280">
         <v>38888888</v>
       </c>
-      <c r="H280">
+      <c r="J280">
         <v>180</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K280" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>387</v>
+        <v>680</v>
       </c>
       <c r="C281" t="s">
         <v>388</v>
       </c>
-      <c r="F281" t="b">
-        <v>1</v>
-      </c>
-      <c r="G281">
+      <c r="H281" t="s">
+        <v>399</v>
+      </c>
+      <c r="I281">
         <v>38888888</v>
       </c>
-      <c r="H281">
+      <c r="J281">
         <v>180</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K281" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>389</v>
+        <v>681</v>
       </c>
       <c r="C282" t="s">
         <v>390</v>
       </c>
-      <c r="F282" t="b">
-        <v>1</v>
-      </c>
-      <c r="G282">
+      <c r="H282" t="s">
+        <v>399</v>
+      </c>
+      <c r="I282">
         <v>29690491</v>
       </c>
-      <c r="H282">
+      <c r="J282">
         <v>200</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K282" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>391</v>
+        <v>682</v>
       </c>
       <c r="C283" t="s">
         <v>390</v>
       </c>
-      <c r="F283" t="b">
-        <v>1</v>
-      </c>
-      <c r="G283">
+      <c r="H283" t="s">
+        <v>399</v>
+      </c>
+      <c r="I283">
         <v>29533801</v>
       </c>
-      <c r="H283">
+      <c r="J283">
         <v>200</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K283" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>392</v>
+        <v>683</v>
       </c>
       <c r="C284" t="s">
         <v>393</v>
       </c>
-      <c r="F284" t="b">
-        <v>1</v>
-      </c>
-      <c r="G284">
+      <c r="H284" t="s">
+        <v>399</v>
+      </c>
+      <c r="I284">
         <v>38888888</v>
       </c>
-      <c r="H284">
+      <c r="J284">
         <v>180</v>
       </c>
+      <c r="K284" t="s">
+        <v>392</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>